--- a/Technical support recruitment.xlsx
+++ b/Technical support recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shared\Finance Team Folder\FP&amp;A\Requests\Files\51_012021_Test for the Technology FP&amp;A analyst position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thh\Documents\GitHub\fpa_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22B2248-2248-475F-8A6C-233D94849F9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9A5070-D5CD-439E-A20E-AA059AACD4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Names</t>
   </si>
@@ -767,18 +767,18 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" customWidth="1"/>
+    <col min="3" max="3" width="24.84375" customWidth="1"/>
+    <col min="4" max="4" width="12.3828125" customWidth="1"/>
+    <col min="5" max="5" width="13.69140625" customWidth="1"/>
+    <col min="6" max="6" width="11.921875" customWidth="1"/>
+    <col min="7" max="7" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15.45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
@@ -805,7 +805,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -841,7 +841,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
@@ -865,7 +865,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
@@ -877,7 +877,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>33</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
@@ -913,7 +913,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>36</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>63</v>
       </c>
@@ -937,7 +937,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>38</v>
       </c>
@@ -973,7 +973,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="17" t="s">
         <v>39</v>
       </c>
@@ -985,7 +985,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>40</v>
       </c>
@@ -997,7 +997,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="17" t="s">
         <v>41</v>
       </c>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>42</v>
       </c>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17" t="s">
         <v>43</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>44</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17" t="s">
         <v>45</v>
       </c>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>46</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17" t="s">
         <v>47</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>48</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
         <v>49</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>50</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="17" t="s">
         <v>51</v>
       </c>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>52</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="17" t="s">
         <v>53</v>
       </c>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>19</v>
       </c>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17" t="s">
         <v>54</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>55</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17" t="s">
         <v>56</v>
       </c>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>57</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17" t="s">
         <v>58</v>
       </c>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>59</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="17" t="s">
         <v>60</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>61</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17" t="s">
         <v>62</v>
       </c>
@@ -1273,5019 +1273,5019 @@
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B170" s="1"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B171" s="1"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B172" s="1"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B173" s="1"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B174" s="1"/>
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B175" s="1"/>
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B176" s="1"/>
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B177" s="1"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B178" s="1"/>
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B179" s="1"/>
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B180" s="1"/>
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B181" s="1"/>
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B182" s="1"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B183" s="1"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B184" s="1"/>
       <c r="M184" s="1"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B185" s="1"/>
       <c r="M185" s="1"/>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B186" s="1"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B187" s="1"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B188" s="1"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B189" s="1"/>
       <c r="M189" s="1"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B190" s="1"/>
       <c r="M190" s="1"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B191" s="1"/>
       <c r="M191" s="1"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B192" s="1"/>
       <c r="M192" s="1"/>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B193" s="1"/>
       <c r="M193" s="1"/>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B194" s="1"/>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B195" s="1"/>
       <c r="M195" s="1"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B196" s="1"/>
       <c r="M196" s="1"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B197" s="1"/>
       <c r="M197" s="1"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B198" s="1"/>
       <c r="M198" s="1"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B199" s="1"/>
       <c r="M199" s="1"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B200" s="1"/>
       <c r="M200" s="1"/>
     </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B201" s="1"/>
       <c r="M201" s="1"/>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B202" s="1"/>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B203" s="1"/>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B204" s="1"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B205" s="1"/>
       <c r="M205" s="1"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B206" s="1"/>
       <c r="M206" s="1"/>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B207" s="1"/>
       <c r="M207" s="1"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B208" s="1"/>
       <c r="M208" s="1"/>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B209" s="1"/>
       <c r="M209" s="1"/>
     </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B210" s="1"/>
       <c r="M210" s="1"/>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B211" s="1"/>
       <c r="M211" s="1"/>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B212" s="1"/>
       <c r="M212" s="1"/>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B213" s="1"/>
       <c r="M213" s="1"/>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B214" s="1"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B215" s="1"/>
       <c r="M215" s="1"/>
     </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B216" s="1"/>
       <c r="M216" s="1"/>
     </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B217" s="1"/>
       <c r="M217" s="1"/>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B218" s="1"/>
       <c r="M218" s="1"/>
     </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B219" s="1"/>
       <c r="M219" s="1"/>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B220" s="1"/>
       <c r="M220" s="1"/>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B221" s="1"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B222" s="1"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B223" s="1"/>
       <c r="M223" s="1"/>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B224" s="1"/>
       <c r="M224" s="1"/>
     </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B225" s="1"/>
       <c r="M225" s="1"/>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B226" s="1"/>
       <c r="M226" s="1"/>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B227" s="1"/>
       <c r="M227" s="1"/>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B228" s="1"/>
       <c r="M228" s="1"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B229" s="1"/>
       <c r="M229" s="1"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B230" s="1"/>
       <c r="M230" s="1"/>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B231" s="1"/>
       <c r="M231" s="1"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B232" s="1"/>
       <c r="M232" s="1"/>
     </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B233" s="1"/>
       <c r="M233" s="1"/>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B234" s="1"/>
       <c r="M234" s="1"/>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B235" s="1"/>
       <c r="M235" s="1"/>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B236" s="1"/>
       <c r="M236" s="1"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B237" s="1"/>
       <c r="M237" s="1"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B238" s="1"/>
       <c r="M238" s="1"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B239" s="1"/>
       <c r="M239" s="1"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B240" s="1"/>
       <c r="M240" s="1"/>
     </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B241" s="1"/>
       <c r="M241" s="1"/>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B242" s="1"/>
       <c r="M242" s="1"/>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B243" s="1"/>
       <c r="M243" s="1"/>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B244" s="1"/>
       <c r="M244" s="1"/>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B245" s="1"/>
       <c r="M245" s="1"/>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B246" s="1"/>
       <c r="M246" s="1"/>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B247" s="1"/>
       <c r="M247" s="1"/>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B248" s="1"/>
       <c r="M248" s="1"/>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B249" s="1"/>
       <c r="M249" s="1"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B250" s="1"/>
       <c r="M250" s="1"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B251" s="1"/>
       <c r="M251" s="1"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B252" s="1"/>
       <c r="M252" s="1"/>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B253" s="1"/>
       <c r="M253" s="1"/>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B254" s="1"/>
       <c r="M254" s="1"/>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B255" s="1"/>
       <c r="M255" s="1"/>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B256" s="1"/>
       <c r="M256" s="1"/>
     </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B257" s="1"/>
       <c r="M257" s="1"/>
     </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B258" s="1"/>
       <c r="M258" s="1"/>
     </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B259" s="1"/>
       <c r="M259" s="1"/>
     </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B260" s="1"/>
       <c r="M260" s="1"/>
     </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B261" s="1"/>
       <c r="M261" s="1"/>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B262" s="1"/>
       <c r="M262" s="1"/>
     </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B263" s="1"/>
       <c r="M263" s="1"/>
     </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B264" s="1"/>
       <c r="M264" s="1"/>
     </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B265" s="1"/>
       <c r="M265" s="1"/>
     </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B266" s="1"/>
       <c r="M266" s="1"/>
     </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B267" s="1"/>
       <c r="M267" s="1"/>
     </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B268" s="1"/>
       <c r="M268" s="1"/>
     </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B269" s="1"/>
       <c r="M269" s="1"/>
     </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B270" s="1"/>
       <c r="M270" s="1"/>
     </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B271" s="1"/>
       <c r="M271" s="1"/>
     </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B272" s="1"/>
       <c r="M272" s="1"/>
     </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B273" s="1"/>
       <c r="M273" s="1"/>
     </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B274" s="1"/>
       <c r="M274" s="1"/>
     </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B275" s="1"/>
       <c r="M275" s="1"/>
     </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B276" s="1"/>
       <c r="M276" s="1"/>
     </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B277" s="1"/>
       <c r="M277" s="1"/>
     </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B278" s="1"/>
       <c r="M278" s="1"/>
     </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B279" s="1"/>
       <c r="M279" s="1"/>
     </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B280" s="1"/>
       <c r="M280" s="1"/>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B281" s="1"/>
       <c r="M281" s="1"/>
     </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B282" s="1"/>
       <c r="M282" s="1"/>
     </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B283" s="1"/>
       <c r="M283" s="1"/>
     </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B284" s="1"/>
       <c r="M284" s="1"/>
     </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B285" s="1"/>
       <c r="M285" s="1"/>
     </row>
-    <row r="286" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B286" s="1"/>
       <c r="M286" s="1"/>
     </row>
-    <row r="287" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B287" s="1"/>
       <c r="M287" s="1"/>
     </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B288" s="1"/>
       <c r="M288" s="1"/>
     </row>
-    <row r="289" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B289" s="1"/>
       <c r="M289" s="1"/>
     </row>
-    <row r="290" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B290" s="1"/>
       <c r="M290" s="1"/>
     </row>
-    <row r="291" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B291" s="1"/>
       <c r="M291" s="1"/>
     </row>
-    <row r="292" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B292" s="1"/>
       <c r="M292" s="1"/>
     </row>
-    <row r="293" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B293" s="1"/>
       <c r="M293" s="1"/>
     </row>
-    <row r="294" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B294" s="1"/>
       <c r="M294" s="1"/>
     </row>
-    <row r="295" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B295" s="1"/>
       <c r="M295" s="1"/>
     </row>
-    <row r="296" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B296" s="1"/>
       <c r="M296" s="1"/>
     </row>
-    <row r="297" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B297" s="1"/>
       <c r="M297" s="1"/>
     </row>
-    <row r="298" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B298" s="1"/>
       <c r="M298" s="1"/>
     </row>
-    <row r="299" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B299" s="1"/>
       <c r="M299" s="1"/>
     </row>
-    <row r="300" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B300" s="1"/>
       <c r="M300" s="1"/>
     </row>
-    <row r="301" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B301" s="1"/>
       <c r="M301" s="1"/>
     </row>
-    <row r="302" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B302" s="1"/>
       <c r="M302" s="1"/>
     </row>
-    <row r="303" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B303" s="1"/>
       <c r="M303" s="1"/>
     </row>
-    <row r="304" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B304" s="1"/>
       <c r="M304" s="1"/>
     </row>
-    <row r="305" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B305" s="1"/>
       <c r="M305" s="1"/>
     </row>
-    <row r="306" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B306" s="1"/>
       <c r="M306" s="1"/>
     </row>
-    <row r="307" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B307" s="1"/>
       <c r="M307" s="1"/>
     </row>
-    <row r="308" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B308" s="1"/>
       <c r="M308" s="1"/>
     </row>
-    <row r="309" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B309" s="1"/>
       <c r="M309" s="1"/>
     </row>
-    <row r="310" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B310" s="1"/>
       <c r="M310" s="1"/>
     </row>
-    <row r="311" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B311" s="1"/>
       <c r="M311" s="1"/>
     </row>
-    <row r="312" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B312" s="1"/>
       <c r="M312" s="1"/>
     </row>
-    <row r="313" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B313" s="1"/>
       <c r="M313" s="1"/>
     </row>
-    <row r="314" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B314" s="1"/>
       <c r="M314" s="1"/>
     </row>
-    <row r="315" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B315" s="1"/>
       <c r="M315" s="1"/>
     </row>
-    <row r="316" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B316" s="1"/>
       <c r="M316" s="1"/>
     </row>
-    <row r="317" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B317" s="1"/>
       <c r="M317" s="1"/>
     </row>
-    <row r="318" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B318" s="1"/>
       <c r="M318" s="1"/>
     </row>
-    <row r="319" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B319" s="1"/>
       <c r="M319" s="1"/>
     </row>
-    <row r="320" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B320" s="1"/>
       <c r="M320" s="1"/>
     </row>
-    <row r="321" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B321" s="1"/>
       <c r="M321" s="1"/>
     </row>
-    <row r="322" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B322" s="1"/>
       <c r="M322" s="1"/>
     </row>
-    <row r="323" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B323" s="1"/>
       <c r="M323" s="1"/>
     </row>
-    <row r="324" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B324" s="1"/>
       <c r="M324" s="1"/>
     </row>
-    <row r="325" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B325" s="1"/>
       <c r="M325" s="1"/>
     </row>
-    <row r="326" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B326" s="1"/>
       <c r="M326" s="1"/>
     </row>
-    <row r="327" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B327" s="1"/>
       <c r="M327" s="1"/>
     </row>
-    <row r="328" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B328" s="1"/>
       <c r="M328" s="1"/>
     </row>
-    <row r="329" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B329" s="1"/>
       <c r="M329" s="1"/>
     </row>
-    <row r="330" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B330" s="1"/>
       <c r="M330" s="1"/>
     </row>
-    <row r="331" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B331" s="1"/>
       <c r="M331" s="1"/>
     </row>
-    <row r="332" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B332" s="1"/>
       <c r="M332" s="1"/>
     </row>
-    <row r="333" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B333" s="1"/>
       <c r="M333" s="1"/>
     </row>
-    <row r="334" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B334" s="1"/>
       <c r="M334" s="1"/>
     </row>
-    <row r="335" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B335" s="1"/>
       <c r="M335" s="1"/>
     </row>
-    <row r="336" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B336" s="1"/>
       <c r="M336" s="1"/>
     </row>
-    <row r="337" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B337" s="1"/>
       <c r="M337" s="1"/>
     </row>
-    <row r="338" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B338" s="1"/>
       <c r="M338" s="1"/>
     </row>
-    <row r="339" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B339" s="1"/>
       <c r="M339" s="1"/>
     </row>
-    <row r="340" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B340" s="1"/>
       <c r="M340" s="1"/>
     </row>
-    <row r="341" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B341" s="1"/>
       <c r="M341" s="1"/>
     </row>
-    <row r="342" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B342" s="1"/>
       <c r="M342" s="1"/>
     </row>
-    <row r="343" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B343" s="1"/>
       <c r="M343" s="1"/>
     </row>
-    <row r="344" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B344" s="1"/>
       <c r="M344" s="1"/>
     </row>
-    <row r="345" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B345" s="1"/>
       <c r="M345" s="1"/>
     </row>
-    <row r="346" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B346" s="1"/>
       <c r="M346" s="1"/>
     </row>
-    <row r="347" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B347" s="1"/>
       <c r="M347" s="1"/>
     </row>
-    <row r="348" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B348" s="1"/>
       <c r="M348" s="1"/>
     </row>
-    <row r="349" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B349" s="1"/>
       <c r="M349" s="1"/>
     </row>
-    <row r="350" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B350" s="1"/>
       <c r="M350" s="1"/>
     </row>
-    <row r="351" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B351" s="1"/>
       <c r="M351" s="1"/>
     </row>
-    <row r="352" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B352" s="1"/>
       <c r="M352" s="1"/>
     </row>
-    <row r="353" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B353" s="1"/>
       <c r="M353" s="1"/>
     </row>
-    <row r="354" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B354" s="1"/>
       <c r="M354" s="1"/>
     </row>
-    <row r="355" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B355" s="1"/>
       <c r="M355" s="1"/>
     </row>
-    <row r="356" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B356" s="1"/>
       <c r="M356" s="1"/>
     </row>
-    <row r="357" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B357" s="1"/>
       <c r="M357" s="1"/>
     </row>
-    <row r="358" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B358" s="1"/>
       <c r="M358" s="1"/>
     </row>
-    <row r="359" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B359" s="1"/>
       <c r="M359" s="1"/>
     </row>
-    <row r="360" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B360" s="1"/>
       <c r="M360" s="1"/>
     </row>
-    <row r="361" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B361" s="1"/>
       <c r="M361" s="1"/>
     </row>
-    <row r="362" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B362" s="1"/>
       <c r="M362" s="1"/>
     </row>
-    <row r="363" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B363" s="1"/>
       <c r="M363" s="1"/>
     </row>
-    <row r="364" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B364" s="1"/>
       <c r="M364" s="1"/>
     </row>
-    <row r="365" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B365" s="1"/>
       <c r="M365" s="1"/>
     </row>
-    <row r="366" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B366" s="1"/>
       <c r="M366" s="1"/>
     </row>
-    <row r="367" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B367" s="1"/>
       <c r="M367" s="1"/>
     </row>
-    <row r="368" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B368" s="1"/>
       <c r="M368" s="1"/>
     </row>
-    <row r="369" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B369" s="1"/>
       <c r="M369" s="1"/>
     </row>
-    <row r="370" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B370" s="1"/>
       <c r="M370" s="1"/>
     </row>
-    <row r="371" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B371" s="1"/>
       <c r="M371" s="1"/>
     </row>
-    <row r="372" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B372" s="1"/>
       <c r="M372" s="1"/>
     </row>
-    <row r="373" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B373" s="1"/>
       <c r="M373" s="1"/>
     </row>
-    <row r="374" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B374" s="1"/>
       <c r="M374" s="1"/>
     </row>
-    <row r="375" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B375" s="1"/>
       <c r="M375" s="1"/>
     </row>
-    <row r="376" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B376" s="1"/>
       <c r="M376" s="1"/>
     </row>
-    <row r="377" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B377" s="1"/>
       <c r="M377" s="1"/>
     </row>
-    <row r="378" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B378" s="1"/>
       <c r="M378" s="1"/>
     </row>
-    <row r="379" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B379" s="1"/>
       <c r="M379" s="1"/>
     </row>
-    <row r="380" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B380" s="1"/>
       <c r="M380" s="1"/>
     </row>
-    <row r="381" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B381" s="1"/>
       <c r="M381" s="1"/>
     </row>
-    <row r="382" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B382" s="1"/>
       <c r="M382" s="1"/>
     </row>
-    <row r="383" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B383" s="1"/>
       <c r="M383" s="1"/>
     </row>
-    <row r="384" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B384" s="1"/>
       <c r="M384" s="1"/>
     </row>
-    <row r="385" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B385" s="1"/>
       <c r="M385" s="1"/>
     </row>
-    <row r="386" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B386" s="1"/>
       <c r="M386" s="1"/>
     </row>
-    <row r="387" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B387" s="1"/>
       <c r="M387" s="1"/>
     </row>
-    <row r="388" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B388" s="1"/>
       <c r="M388" s="1"/>
     </row>
-    <row r="389" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B389" s="1"/>
       <c r="M389" s="1"/>
     </row>
-    <row r="390" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B390" s="1"/>
       <c r="M390" s="1"/>
     </row>
-    <row r="391" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B391" s="1"/>
       <c r="M391" s="1"/>
     </row>
-    <row r="392" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B392" s="1"/>
       <c r="M392" s="1"/>
     </row>
-    <row r="393" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B393" s="1"/>
       <c r="M393" s="1"/>
     </row>
-    <row r="394" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B394" s="1"/>
       <c r="M394" s="1"/>
     </row>
-    <row r="395" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B395" s="1"/>
       <c r="M395" s="1"/>
     </row>
-    <row r="396" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B396" s="1"/>
       <c r="M396" s="1"/>
     </row>
-    <row r="397" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B397" s="1"/>
       <c r="M397" s="1"/>
     </row>
-    <row r="398" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B398" s="1"/>
       <c r="M398" s="1"/>
     </row>
-    <row r="399" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B399" s="1"/>
       <c r="M399" s="1"/>
     </row>
-    <row r="400" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B400" s="1"/>
       <c r="M400" s="1"/>
     </row>
-    <row r="401" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B401" s="1"/>
       <c r="M401" s="1"/>
     </row>
-    <row r="402" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B402" s="1"/>
       <c r="M402" s="1"/>
     </row>
-    <row r="403" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B403" s="1"/>
       <c r="M403" s="1"/>
     </row>
-    <row r="404" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B404" s="1"/>
       <c r="M404" s="1"/>
     </row>
-    <row r="405" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B405" s="1"/>
       <c r="M405" s="1"/>
     </row>
-    <row r="406" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B406" s="1"/>
       <c r="M406" s="1"/>
     </row>
-    <row r="407" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B407" s="1"/>
       <c r="M407" s="1"/>
     </row>
-    <row r="408" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B408" s="1"/>
       <c r="M408" s="1"/>
     </row>
-    <row r="409" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B409" s="1"/>
       <c r="M409" s="1"/>
     </row>
-    <row r="410" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B410" s="1"/>
       <c r="M410" s="1"/>
     </row>
-    <row r="411" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B411" s="1"/>
       <c r="M411" s="1"/>
     </row>
-    <row r="412" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B412" s="1"/>
       <c r="M412" s="1"/>
     </row>
-    <row r="413" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B413" s="1"/>
       <c r="M413" s="1"/>
     </row>
-    <row r="414" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B414" s="1"/>
       <c r="M414" s="1"/>
     </row>
-    <row r="415" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B415" s="1"/>
       <c r="M415" s="1"/>
     </row>
-    <row r="416" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B416" s="1"/>
       <c r="M416" s="1"/>
     </row>
-    <row r="417" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B417" s="1"/>
       <c r="M417" s="1"/>
     </row>
-    <row r="418" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B418" s="1"/>
       <c r="M418" s="1"/>
     </row>
-    <row r="419" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B419" s="1"/>
       <c r="M419" s="1"/>
     </row>
-    <row r="420" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B420" s="1"/>
       <c r="M420" s="1"/>
     </row>
-    <row r="421" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B421" s="1"/>
       <c r="M421" s="1"/>
     </row>
-    <row r="422" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B422" s="1"/>
       <c r="M422" s="1"/>
     </row>
-    <row r="423" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B423" s="1"/>
       <c r="M423" s="1"/>
     </row>
-    <row r="424" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B424" s="1"/>
       <c r="M424" s="1"/>
     </row>
-    <row r="425" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B425" s="1"/>
       <c r="M425" s="1"/>
     </row>
-    <row r="426" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B426" s="1"/>
       <c r="M426" s="1"/>
     </row>
-    <row r="427" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B427" s="1"/>
       <c r="M427" s="1"/>
     </row>
-    <row r="428" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B428" s="1"/>
       <c r="M428" s="1"/>
     </row>
-    <row r="429" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B429" s="1"/>
       <c r="M429" s="1"/>
     </row>
-    <row r="430" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B430" s="1"/>
       <c r="M430" s="1"/>
     </row>
-    <row r="431" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B431" s="1"/>
       <c r="M431" s="1"/>
     </row>
-    <row r="432" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B432" s="1"/>
       <c r="M432" s="1"/>
     </row>
-    <row r="433" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B433" s="1"/>
       <c r="M433" s="1"/>
     </row>
-    <row r="434" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B434" s="1"/>
       <c r="M434" s="1"/>
     </row>
-    <row r="435" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B435" s="1"/>
       <c r="M435" s="1"/>
     </row>
-    <row r="436" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B436" s="1"/>
       <c r="M436" s="1"/>
     </row>
-    <row r="437" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B437" s="1"/>
       <c r="M437" s="1"/>
     </row>
-    <row r="438" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B438" s="1"/>
       <c r="M438" s="1"/>
     </row>
-    <row r="439" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B439" s="1"/>
       <c r="M439" s="1"/>
     </row>
-    <row r="440" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B440" s="1"/>
       <c r="M440" s="1"/>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B441" s="1"/>
       <c r="M441" s="1"/>
     </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B442" s="1"/>
       <c r="M442" s="1"/>
     </row>
-    <row r="443" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B443" s="1"/>
       <c r="M443" s="1"/>
     </row>
-    <row r="444" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B444" s="1"/>
       <c r="M444" s="1"/>
     </row>
-    <row r="445" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B445" s="1"/>
       <c r="M445" s="1"/>
     </row>
-    <row r="446" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B446" s="1"/>
       <c r="M446" s="1"/>
     </row>
-    <row r="447" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B447" s="1"/>
       <c r="M447" s="1"/>
     </row>
-    <row r="448" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B448" s="1"/>
       <c r="M448" s="1"/>
     </row>
-    <row r="449" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B449" s="1"/>
       <c r="M449" s="1"/>
     </row>
-    <row r="450" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B450" s="1"/>
       <c r="M450" s="1"/>
     </row>
-    <row r="451" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B451" s="1"/>
       <c r="M451" s="1"/>
     </row>
-    <row r="452" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B452" s="1"/>
       <c r="M452" s="1"/>
     </row>
-    <row r="453" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B453" s="1"/>
       <c r="M453" s="1"/>
     </row>
-    <row r="454" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B454" s="1"/>
       <c r="M454" s="1"/>
     </row>
-    <row r="455" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B455" s="1"/>
       <c r="M455" s="1"/>
     </row>
-    <row r="456" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B456" s="1"/>
       <c r="M456" s="1"/>
     </row>
-    <row r="457" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B457" s="1"/>
       <c r="M457" s="1"/>
     </row>
-    <row r="458" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B458" s="1"/>
       <c r="M458" s="1"/>
     </row>
-    <row r="459" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B459" s="1"/>
       <c r="M459" s="1"/>
     </row>
-    <row r="460" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B460" s="1"/>
       <c r="M460" s="1"/>
     </row>
-    <row r="461" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B461" s="1"/>
       <c r="M461" s="1"/>
     </row>
-    <row r="462" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B462" s="1"/>
       <c r="M462" s="1"/>
     </row>
-    <row r="463" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B463" s="1"/>
       <c r="M463" s="1"/>
     </row>
-    <row r="464" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B464" s="1"/>
       <c r="M464" s="1"/>
     </row>
-    <row r="465" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B465" s="1"/>
       <c r="M465" s="1"/>
     </row>
-    <row r="466" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B466" s="1"/>
       <c r="M466" s="1"/>
     </row>
-    <row r="467" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B467" s="1"/>
       <c r="M467" s="1"/>
     </row>
-    <row r="468" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B468" s="1"/>
       <c r="M468" s="1"/>
     </row>
-    <row r="469" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B469" s="1"/>
       <c r="M469" s="1"/>
     </row>
-    <row r="470" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B470" s="1"/>
       <c r="M470" s="1"/>
     </row>
-    <row r="471" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B471" s="1"/>
       <c r="M471" s="1"/>
     </row>
-    <row r="472" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B472" s="1"/>
       <c r="M472" s="1"/>
     </row>
-    <row r="473" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B473" s="1"/>
       <c r="M473" s="1"/>
     </row>
-    <row r="474" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B474" s="1"/>
       <c r="M474" s="1"/>
     </row>
-    <row r="475" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B475" s="1"/>
       <c r="M475" s="1"/>
     </row>
-    <row r="476" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B476" s="1"/>
       <c r="M476" s="1"/>
     </row>
-    <row r="477" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B477" s="1"/>
       <c r="M477" s="1"/>
     </row>
-    <row r="478" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B478" s="1"/>
       <c r="M478" s="1"/>
     </row>
-    <row r="479" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B479" s="1"/>
       <c r="M479" s="1"/>
     </row>
-    <row r="480" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B480" s="1"/>
       <c r="M480" s="1"/>
     </row>
-    <row r="481" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B481" s="1"/>
       <c r="M481" s="1"/>
     </row>
-    <row r="482" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B482" s="1"/>
       <c r="M482" s="1"/>
     </row>
-    <row r="483" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B483" s="1"/>
       <c r="M483" s="1"/>
     </row>
-    <row r="484" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B484" s="1"/>
       <c r="M484" s="1"/>
     </row>
-    <row r="485" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B485" s="1"/>
       <c r="M485" s="1"/>
     </row>
-    <row r="486" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B486" s="1"/>
       <c r="M486" s="1"/>
     </row>
-    <row r="487" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B487" s="1"/>
       <c r="M487" s="1"/>
     </row>
-    <row r="488" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B488" s="1"/>
       <c r="M488" s="1"/>
     </row>
-    <row r="489" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B489" s="1"/>
       <c r="M489" s="1"/>
     </row>
-    <row r="490" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B490" s="1"/>
       <c r="M490" s="1"/>
     </row>
-    <row r="491" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B491" s="1"/>
       <c r="M491" s="1"/>
     </row>
-    <row r="492" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B492" s="1"/>
       <c r="M492" s="1"/>
     </row>
-    <row r="493" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B493" s="1"/>
       <c r="M493" s="1"/>
     </row>
-    <row r="494" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B494" s="1"/>
       <c r="M494" s="1"/>
     </row>
-    <row r="495" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B495" s="1"/>
       <c r="M495" s="1"/>
     </row>
-    <row r="496" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B496" s="1"/>
       <c r="M496" s="1"/>
     </row>
-    <row r="497" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B497" s="1"/>
       <c r="M497" s="1"/>
     </row>
-    <row r="498" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B498" s="1"/>
       <c r="M498" s="1"/>
     </row>
-    <row r="499" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B499" s="1"/>
       <c r="M499" s="1"/>
     </row>
-    <row r="500" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B500" s="1"/>
       <c r="M500" s="1"/>
     </row>
-    <row r="501" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B501" s="1"/>
       <c r="M501" s="1"/>
     </row>
-    <row r="502" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B502" s="1"/>
       <c r="M502" s="1"/>
     </row>
-    <row r="503" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B503" s="1"/>
       <c r="M503" s="1"/>
     </row>
-    <row r="504" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B504" s="1"/>
       <c r="M504" s="1"/>
     </row>
-    <row r="505" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B505" s="1"/>
       <c r="M505" s="1"/>
     </row>
-    <row r="506" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B506" s="1"/>
       <c r="M506" s="1"/>
     </row>
-    <row r="507" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B507" s="1"/>
       <c r="M507" s="1"/>
     </row>
-    <row r="508" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B508" s="1"/>
       <c r="M508" s="1"/>
     </row>
-    <row r="509" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B509" s="1"/>
       <c r="M509" s="1"/>
     </row>
-    <row r="510" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B510" s="1"/>
       <c r="M510" s="1"/>
     </row>
-    <row r="511" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B511" s="1"/>
       <c r="M511" s="1"/>
     </row>
-    <row r="512" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B512" s="1"/>
       <c r="M512" s="1"/>
     </row>
-    <row r="513" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B513" s="1"/>
       <c r="M513" s="1"/>
     </row>
-    <row r="514" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B514" s="1"/>
       <c r="M514" s="1"/>
     </row>
-    <row r="515" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B515" s="1"/>
       <c r="M515" s="1"/>
     </row>
-    <row r="516" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B516" s="1"/>
       <c r="M516" s="1"/>
     </row>
-    <row r="517" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B517" s="1"/>
       <c r="M517" s="1"/>
     </row>
-    <row r="518" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B518" s="1"/>
       <c r="M518" s="1"/>
     </row>
-    <row r="519" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B519" s="1"/>
       <c r="M519" s="1"/>
     </row>
-    <row r="520" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B520" s="1"/>
       <c r="M520" s="1"/>
     </row>
-    <row r="521" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B521" s="1"/>
       <c r="M521" s="1"/>
     </row>
-    <row r="522" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B522" s="1"/>
       <c r="M522" s="1"/>
     </row>
-    <row r="523" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B523" s="1"/>
       <c r="M523" s="1"/>
     </row>
-    <row r="524" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B524" s="1"/>
       <c r="M524" s="1"/>
     </row>
-    <row r="525" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B525" s="1"/>
       <c r="M525" s="1"/>
     </row>
-    <row r="526" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B526" s="1"/>
       <c r="M526" s="1"/>
     </row>
-    <row r="527" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B527" s="1"/>
       <c r="M527" s="1"/>
     </row>
-    <row r="528" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B528" s="1"/>
       <c r="M528" s="1"/>
     </row>
-    <row r="529" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B529" s="1"/>
       <c r="M529" s="1"/>
     </row>
-    <row r="530" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B530" s="1"/>
       <c r="M530" s="1"/>
     </row>
-    <row r="531" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B531" s="1"/>
       <c r="M531" s="1"/>
     </row>
-    <row r="532" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B532" s="1"/>
       <c r="M532" s="1"/>
     </row>
-    <row r="533" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B533" s="1"/>
       <c r="M533" s="1"/>
     </row>
-    <row r="534" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B534" s="1"/>
       <c r="M534" s="1"/>
     </row>
-    <row r="535" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B535" s="1"/>
       <c r="M535" s="1"/>
     </row>
-    <row r="536" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B536" s="1"/>
       <c r="M536" s="1"/>
     </row>
-    <row r="537" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B537" s="1"/>
       <c r="M537" s="1"/>
     </row>
-    <row r="538" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B538" s="1"/>
       <c r="M538" s="1"/>
     </row>
-    <row r="539" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B539" s="1"/>
       <c r="M539" s="1"/>
     </row>
-    <row r="540" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B540" s="1"/>
       <c r="M540" s="1"/>
     </row>
-    <row r="541" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B541" s="1"/>
       <c r="M541" s="1"/>
     </row>
-    <row r="542" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B542" s="1"/>
       <c r="M542" s="1"/>
     </row>
-    <row r="543" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B543" s="1"/>
       <c r="M543" s="1"/>
     </row>
-    <row r="544" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B544" s="1"/>
       <c r="M544" s="1"/>
     </row>
-    <row r="545" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B545" s="1"/>
       <c r="M545" s="1"/>
     </row>
-    <row r="546" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B546" s="1"/>
       <c r="M546" s="1"/>
     </row>
-    <row r="547" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B547" s="1"/>
       <c r="M547" s="1"/>
     </row>
-    <row r="548" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B548" s="1"/>
       <c r="M548" s="1"/>
     </row>
-    <row r="549" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B549" s="1"/>
       <c r="M549" s="1"/>
     </row>
-    <row r="550" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B550" s="1"/>
       <c r="M550" s="1"/>
     </row>
-    <row r="551" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B551" s="1"/>
       <c r="M551" s="1"/>
     </row>
-    <row r="552" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B552" s="1"/>
       <c r="M552" s="1"/>
     </row>
-    <row r="553" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B553" s="1"/>
       <c r="M553" s="1"/>
     </row>
-    <row r="554" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B554" s="1"/>
       <c r="M554" s="1"/>
     </row>
-    <row r="555" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B555" s="1"/>
       <c r="M555" s="1"/>
     </row>
-    <row r="556" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B556" s="1"/>
       <c r="M556" s="1"/>
     </row>
-    <row r="557" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B557" s="1"/>
       <c r="M557" s="1"/>
     </row>
-    <row r="558" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B558" s="1"/>
       <c r="M558" s="1"/>
     </row>
-    <row r="559" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B559" s="1"/>
       <c r="M559" s="1"/>
     </row>
-    <row r="560" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B560" s="1"/>
       <c r="M560" s="1"/>
     </row>
-    <row r="561" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B561" s="1"/>
       <c r="M561" s="1"/>
     </row>
-    <row r="562" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B562" s="1"/>
       <c r="M562" s="1"/>
     </row>
-    <row r="563" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B563" s="1"/>
       <c r="M563" s="1"/>
     </row>
-    <row r="564" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B564" s="1"/>
       <c r="M564" s="1"/>
     </row>
-    <row r="565" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B565" s="1"/>
       <c r="M565" s="1"/>
     </row>
-    <row r="566" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B566" s="1"/>
       <c r="M566" s="1"/>
     </row>
-    <row r="567" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B567" s="1"/>
       <c r="M567" s="1"/>
     </row>
-    <row r="568" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B568" s="1"/>
       <c r="M568" s="1"/>
     </row>
-    <row r="569" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B569" s="1"/>
       <c r="M569" s="1"/>
     </row>
-    <row r="570" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B570" s="1"/>
       <c r="M570" s="1"/>
     </row>
-    <row r="571" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B571" s="1"/>
       <c r="M571" s="1"/>
     </row>
-    <row r="572" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B572" s="1"/>
       <c r="M572" s="1"/>
     </row>
-    <row r="573" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B573" s="1"/>
       <c r="M573" s="1"/>
     </row>
-    <row r="574" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B574" s="1"/>
       <c r="M574" s="1"/>
     </row>
-    <row r="575" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B575" s="1"/>
       <c r="M575" s="1"/>
     </row>
-    <row r="576" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B576" s="1"/>
       <c r="M576" s="1"/>
     </row>
-    <row r="577" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B577" s="1"/>
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B578" s="1"/>
       <c r="M578" s="1"/>
     </row>
-    <row r="579" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B579" s="1"/>
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B580" s="1"/>
       <c r="M580" s="1"/>
     </row>
-    <row r="581" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B581" s="1"/>
       <c r="M581" s="1"/>
     </row>
-    <row r="582" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B582" s="1"/>
       <c r="M582" s="1"/>
     </row>
-    <row r="583" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B583" s="1"/>
       <c r="M583" s="1"/>
     </row>
-    <row r="584" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B584" s="1"/>
       <c r="M584" s="1"/>
     </row>
-    <row r="585" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B585" s="1"/>
       <c r="M585" s="1"/>
     </row>
-    <row r="586" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B586" s="1"/>
       <c r="M586" s="1"/>
     </row>
-    <row r="587" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B587" s="1"/>
       <c r="M587" s="1"/>
     </row>
-    <row r="588" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B588" s="1"/>
       <c r="M588" s="1"/>
     </row>
-    <row r="589" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B589" s="1"/>
       <c r="M589" s="1"/>
     </row>
-    <row r="590" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B590" s="1"/>
       <c r="M590" s="1"/>
     </row>
-    <row r="591" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B591" s="1"/>
       <c r="M591" s="1"/>
     </row>
-    <row r="592" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B592" s="1"/>
       <c r="M592" s="1"/>
     </row>
-    <row r="593" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B593" s="1"/>
       <c r="M593" s="1"/>
     </row>
-    <row r="594" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B594" s="1"/>
       <c r="M594" s="1"/>
     </row>
-    <row r="595" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B595" s="1"/>
       <c r="M595" s="1"/>
     </row>
-    <row r="596" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B596" s="1"/>
       <c r="M596" s="1"/>
     </row>
-    <row r="597" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B597" s="1"/>
       <c r="M597" s="1"/>
     </row>
-    <row r="598" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B598" s="1"/>
       <c r="M598" s="1"/>
     </row>
-    <row r="599" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B599" s="1"/>
       <c r="M599" s="1"/>
     </row>
-    <row r="600" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B600" s="1"/>
       <c r="M600" s="1"/>
     </row>
-    <row r="601" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B601" s="1"/>
       <c r="M601" s="1"/>
     </row>
-    <row r="602" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B602" s="1"/>
       <c r="M602" s="1"/>
     </row>
-    <row r="603" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B603" s="1"/>
       <c r="M603" s="1"/>
     </row>
-    <row r="604" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B604" s="1"/>
       <c r="M604" s="1"/>
     </row>
-    <row r="605" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B605" s="1"/>
       <c r="M605" s="1"/>
     </row>
-    <row r="606" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B606" s="1"/>
       <c r="M606" s="1"/>
     </row>
-    <row r="607" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B607" s="1"/>
       <c r="M607" s="1"/>
     </row>
-    <row r="608" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B608" s="1"/>
       <c r="M608" s="1"/>
     </row>
-    <row r="609" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B609" s="1"/>
       <c r="M609" s="1"/>
     </row>
-    <row r="610" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B610" s="1"/>
       <c r="M610" s="1"/>
     </row>
-    <row r="611" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B611" s="1"/>
       <c r="M611" s="1"/>
     </row>
-    <row r="612" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B612" s="1"/>
       <c r="M612" s="1"/>
     </row>
-    <row r="613" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B613" s="1"/>
       <c r="M613" s="1"/>
     </row>
-    <row r="614" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B614" s="1"/>
       <c r="M614" s="1"/>
     </row>
-    <row r="615" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B615" s="1"/>
       <c r="M615" s="1"/>
     </row>
-    <row r="616" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B616" s="1"/>
       <c r="M616" s="1"/>
     </row>
-    <row r="617" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B617" s="1"/>
       <c r="M617" s="1"/>
     </row>
-    <row r="618" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B618" s="1"/>
       <c r="M618" s="1"/>
     </row>
-    <row r="619" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B619" s="1"/>
       <c r="M619" s="1"/>
     </row>
-    <row r="620" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B620" s="1"/>
       <c r="M620" s="1"/>
     </row>
-    <row r="621" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B621" s="1"/>
       <c r="M621" s="1"/>
     </row>
-    <row r="622" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B622" s="1"/>
       <c r="M622" s="1"/>
     </row>
-    <row r="623" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B623" s="1"/>
       <c r="M623" s="1"/>
     </row>
-    <row r="624" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B624" s="1"/>
       <c r="M624" s="1"/>
     </row>
-    <row r="625" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B625" s="1"/>
       <c r="M625" s="1"/>
     </row>
-    <row r="626" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B626" s="1"/>
       <c r="M626" s="1"/>
     </row>
-    <row r="627" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B627" s="1"/>
       <c r="M627" s="1"/>
     </row>
-    <row r="628" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B628" s="1"/>
       <c r="M628" s="1"/>
     </row>
-    <row r="629" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B629" s="1"/>
       <c r="M629" s="1"/>
     </row>
-    <row r="630" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B630" s="1"/>
       <c r="M630" s="1"/>
     </row>
-    <row r="631" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B631" s="1"/>
       <c r="M631" s="1"/>
     </row>
-    <row r="632" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B632" s="1"/>
       <c r="M632" s="1"/>
     </row>
-    <row r="633" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B633" s="1"/>
       <c r="M633" s="1"/>
     </row>
-    <row r="634" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B634" s="1"/>
       <c r="M634" s="1"/>
     </row>
-    <row r="635" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B635" s="1"/>
       <c r="M635" s="1"/>
     </row>
-    <row r="636" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B636" s="1"/>
       <c r="M636" s="1"/>
     </row>
-    <row r="637" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B637" s="1"/>
       <c r="M637" s="1"/>
     </row>
-    <row r="638" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B638" s="1"/>
       <c r="M638" s="1"/>
     </row>
-    <row r="639" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B639" s="1"/>
       <c r="M639" s="1"/>
     </row>
-    <row r="640" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B640" s="1"/>
       <c r="M640" s="1"/>
     </row>
-    <row r="641" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B641" s="1"/>
       <c r="M641" s="1"/>
     </row>
-    <row r="642" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B642" s="1"/>
       <c r="M642" s="1"/>
     </row>
-    <row r="643" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B643" s="1"/>
       <c r="M643" s="1"/>
     </row>
-    <row r="644" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B644" s="1"/>
       <c r="M644" s="1"/>
     </row>
-    <row r="645" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B645" s="1"/>
       <c r="M645" s="1"/>
     </row>
-    <row r="646" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B646" s="1"/>
       <c r="M646" s="1"/>
     </row>
-    <row r="647" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B647" s="1"/>
       <c r="M647" s="1"/>
     </row>
-    <row r="648" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B648" s="1"/>
       <c r="M648" s="1"/>
     </row>
-    <row r="649" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B649" s="1"/>
       <c r="M649" s="1"/>
     </row>
-    <row r="650" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B650" s="1"/>
       <c r="M650" s="1"/>
     </row>
-    <row r="651" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B651" s="1"/>
       <c r="M651" s="1"/>
     </row>
-    <row r="652" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B652" s="1"/>
       <c r="M652" s="1"/>
     </row>
-    <row r="653" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B653" s="1"/>
       <c r="M653" s="1"/>
     </row>
-    <row r="654" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B654" s="1"/>
       <c r="M654" s="1"/>
     </row>
-    <row r="655" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B655" s="1"/>
       <c r="M655" s="1"/>
     </row>
-    <row r="656" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B656" s="1"/>
       <c r="M656" s="1"/>
     </row>
-    <row r="657" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B657" s="1"/>
       <c r="M657" s="1"/>
     </row>
-    <row r="658" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B658" s="1"/>
       <c r="M658" s="1"/>
     </row>
-    <row r="659" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B659" s="1"/>
       <c r="M659" s="1"/>
     </row>
-    <row r="660" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B660" s="1"/>
       <c r="M660" s="1"/>
     </row>
-    <row r="661" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B661" s="1"/>
       <c r="M661" s="1"/>
     </row>
-    <row r="662" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B662" s="1"/>
       <c r="M662" s="1"/>
     </row>
-    <row r="663" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B663" s="1"/>
       <c r="M663" s="1"/>
     </row>
-    <row r="664" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B664" s="1"/>
       <c r="M664" s="1"/>
     </row>
-    <row r="665" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B665" s="1"/>
       <c r="M665" s="1"/>
     </row>
-    <row r="666" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B666" s="1"/>
       <c r="M666" s="1"/>
     </row>
-    <row r="667" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B667" s="1"/>
       <c r="M667" s="1"/>
     </row>
-    <row r="668" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B668" s="1"/>
       <c r="M668" s="1"/>
     </row>
-    <row r="669" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B669" s="1"/>
       <c r="M669" s="1"/>
     </row>
-    <row r="670" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B670" s="1"/>
       <c r="M670" s="1"/>
     </row>
-    <row r="671" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B671" s="1"/>
       <c r="M671" s="1"/>
     </row>
-    <row r="672" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B672" s="1"/>
       <c r="M672" s="1"/>
     </row>
-    <row r="673" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B673" s="1"/>
       <c r="M673" s="1"/>
     </row>
-    <row r="674" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B674" s="1"/>
       <c r="M674" s="1"/>
     </row>
-    <row r="675" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B675" s="1"/>
       <c r="M675" s="1"/>
     </row>
-    <row r="676" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B676" s="1"/>
       <c r="M676" s="1"/>
     </row>
-    <row r="677" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B677" s="1"/>
       <c r="M677" s="1"/>
     </row>
-    <row r="678" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B678" s="1"/>
       <c r="M678" s="1"/>
     </row>
-    <row r="679" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B679" s="1"/>
       <c r="M679" s="1"/>
     </row>
-    <row r="680" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B680" s="1"/>
       <c r="M680" s="1"/>
     </row>
-    <row r="681" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B681" s="1"/>
       <c r="M681" s="1"/>
     </row>
-    <row r="682" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B682" s="1"/>
       <c r="M682" s="1"/>
     </row>
-    <row r="683" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B683" s="1"/>
       <c r="M683" s="1"/>
     </row>
-    <row r="684" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B684" s="1"/>
       <c r="M684" s="1"/>
     </row>
-    <row r="685" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B685" s="1"/>
       <c r="M685" s="1"/>
     </row>
-    <row r="686" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B686" s="1"/>
       <c r="M686" s="1"/>
     </row>
-    <row r="687" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B687" s="1"/>
       <c r="M687" s="1"/>
     </row>
-    <row r="688" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B688" s="1"/>
       <c r="M688" s="1"/>
     </row>
-    <row r="689" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B689" s="1"/>
       <c r="M689" s="1"/>
     </row>
-    <row r="690" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B690" s="1"/>
       <c r="M690" s="1"/>
     </row>
-    <row r="691" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B691" s="1"/>
       <c r="M691" s="1"/>
     </row>
-    <row r="692" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B692" s="1"/>
       <c r="M692" s="1"/>
     </row>
-    <row r="693" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B693" s="1"/>
       <c r="M693" s="1"/>
     </row>
-    <row r="694" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B694" s="1"/>
       <c r="M694" s="1"/>
     </row>
-    <row r="695" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M695" s="1"/>
     </row>
-    <row r="696" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M696" s="1"/>
     </row>
-    <row r="697" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M697" s="1"/>
     </row>
-    <row r="698" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M698" s="1"/>
     </row>
-    <row r="699" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M699" s="1"/>
     </row>
-    <row r="700" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M700" s="1"/>
     </row>
-    <row r="701" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M701" s="1"/>
     </row>
-    <row r="702" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M702" s="1"/>
     </row>
-    <row r="703" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M703" s="1"/>
     </row>
-    <row r="704" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:13" x14ac:dyDescent="0.4">
       <c r="M704" s="1"/>
     </row>
-    <row r="705" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="705" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M705" s="1"/>
     </row>
-    <row r="706" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="706" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M706" s="1"/>
     </row>
-    <row r="707" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="707" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M707" s="1"/>
     </row>
-    <row r="708" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="708" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M708" s="1"/>
     </row>
-    <row r="709" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="709" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M709" s="1"/>
     </row>
-    <row r="710" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="710" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M710" s="1"/>
     </row>
-    <row r="711" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="711" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M711" s="1"/>
     </row>
-    <row r="712" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="712" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M712" s="1"/>
     </row>
-    <row r="713" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="713" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M713" s="1"/>
     </row>
-    <row r="714" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="714" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M714" s="1"/>
     </row>
-    <row r="715" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="715" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M715" s="1"/>
     </row>
-    <row r="716" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="716" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M716" s="1"/>
     </row>
-    <row r="717" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="717" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M717" s="1"/>
     </row>
-    <row r="718" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="718" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M718" s="1"/>
     </row>
-    <row r="719" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="719" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M719" s="1"/>
     </row>
-    <row r="720" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="720" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M720" s="1"/>
     </row>
-    <row r="721" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="721" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M721" s="1"/>
     </row>
-    <row r="722" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="722" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M722" s="1"/>
     </row>
-    <row r="723" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="723" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M723" s="1"/>
     </row>
-    <row r="724" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="724" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M724" s="1"/>
     </row>
-    <row r="725" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="725" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M725" s="1"/>
     </row>
-    <row r="726" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="726" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M726" s="1"/>
     </row>
-    <row r="727" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="727" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M727" s="1"/>
     </row>
-    <row r="728" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="728" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M728" s="1"/>
     </row>
-    <row r="729" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="729" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M729" s="1"/>
     </row>
-    <row r="730" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="730" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M730" s="1"/>
     </row>
-    <row r="731" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="731" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M731" s="1"/>
     </row>
-    <row r="732" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="732" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M732" s="1"/>
     </row>
-    <row r="733" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="733" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M733" s="1"/>
     </row>
-    <row r="734" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="734" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M734" s="1"/>
     </row>
-    <row r="735" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="735" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M735" s="1"/>
     </row>
-    <row r="736" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="736" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M736" s="1"/>
     </row>
-    <row r="737" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="737" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M737" s="1"/>
     </row>
-    <row r="738" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="738" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M738" s="1"/>
     </row>
-    <row r="739" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="739" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M739" s="1"/>
     </row>
-    <row r="740" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="740" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M740" s="1"/>
     </row>
-    <row r="741" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="741" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M741" s="1"/>
     </row>
-    <row r="742" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="742" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M742" s="1"/>
     </row>
-    <row r="743" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="743" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M743" s="1"/>
     </row>
-    <row r="744" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="744" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M744" s="1"/>
     </row>
-    <row r="745" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="745" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M745" s="1"/>
     </row>
-    <row r="746" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="746" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M746" s="1"/>
     </row>
-    <row r="747" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="747" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M747" s="1"/>
     </row>
-    <row r="748" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="748" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M748" s="1"/>
     </row>
-    <row r="749" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="749" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M749" s="1"/>
     </row>
-    <row r="750" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="750" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M750" s="1"/>
     </row>
-    <row r="751" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="751" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M751" s="1"/>
     </row>
-    <row r="752" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="752" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M752" s="1"/>
     </row>
-    <row r="753" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="753" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M753" s="1"/>
     </row>
-    <row r="754" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="754" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M754" s="1"/>
     </row>
-    <row r="755" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="755" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M755" s="1"/>
     </row>
-    <row r="756" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="756" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M756" s="1"/>
     </row>
-    <row r="757" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="757" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M757" s="1"/>
     </row>
-    <row r="758" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="758" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M758" s="1"/>
     </row>
-    <row r="759" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="759" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M759" s="1"/>
     </row>
-    <row r="760" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="760" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M760" s="1"/>
     </row>
-    <row r="761" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="761" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M761" s="1"/>
     </row>
-    <row r="762" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="762" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M762" s="1"/>
     </row>
-    <row r="763" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="763" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M763" s="1"/>
     </row>
-    <row r="764" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="764" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M764" s="1"/>
     </row>
-    <row r="765" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="765" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M765" s="1"/>
     </row>
-    <row r="766" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="766" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M766" s="1"/>
     </row>
-    <row r="767" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="767" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M767" s="1"/>
     </row>
-    <row r="768" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="768" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M768" s="1"/>
     </row>
-    <row r="769" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="769" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M769" s="1"/>
     </row>
-    <row r="770" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="770" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M770" s="1"/>
     </row>
-    <row r="771" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="771" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M771" s="1"/>
     </row>
-    <row r="772" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="772" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M772" s="1"/>
     </row>
-    <row r="773" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="773" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M773" s="1"/>
     </row>
-    <row r="774" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="774" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M774" s="1"/>
     </row>
-    <row r="775" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="775" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M775" s="1"/>
     </row>
-    <row r="776" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="776" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M776" s="1"/>
     </row>
-    <row r="777" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="777" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M777" s="1"/>
     </row>
-    <row r="778" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="778" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M778" s="1"/>
     </row>
-    <row r="779" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="779" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M779" s="1"/>
     </row>
-    <row r="780" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="780" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M780" s="1"/>
     </row>
-    <row r="781" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="781" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M781" s="1"/>
     </row>
-    <row r="782" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="782" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M782" s="1"/>
     </row>
-    <row r="783" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="783" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M783" s="1"/>
     </row>
-    <row r="784" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="784" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M784" s="1"/>
     </row>
-    <row r="785" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="785" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M785" s="1"/>
     </row>
-    <row r="786" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="786" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M786" s="1"/>
     </row>
-    <row r="787" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="787" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M787" s="1"/>
     </row>
-    <row r="788" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="788" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M788" s="1"/>
     </row>
-    <row r="789" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="789" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M789" s="1"/>
     </row>
-    <row r="790" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="790" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M790" s="1"/>
     </row>
-    <row r="791" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="791" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M791" s="1"/>
     </row>
-    <row r="792" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="792" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M792" s="1"/>
     </row>
-    <row r="793" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="793" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M793" s="1"/>
     </row>
-    <row r="794" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="794" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M794" s="1"/>
     </row>
-    <row r="795" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="795" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M795" s="1"/>
     </row>
-    <row r="796" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="796" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M796" s="1"/>
     </row>
-    <row r="797" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="797" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M797" s="1"/>
     </row>
-    <row r="798" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="798" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M798" s="1"/>
     </row>
-    <row r="799" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="799" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M799" s="1"/>
     </row>
-    <row r="800" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="800" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M800" s="1"/>
     </row>
-    <row r="801" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="801" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M801" s="1"/>
     </row>
-    <row r="802" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="802" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M802" s="1"/>
     </row>
-    <row r="803" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="803" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M803" s="1"/>
     </row>
-    <row r="804" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="804" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M804" s="1"/>
     </row>
-    <row r="805" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="805" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M805" s="1"/>
     </row>
-    <row r="806" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="806" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M806" s="1"/>
     </row>
-    <row r="807" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="807" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M807" s="1"/>
     </row>
-    <row r="808" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="808" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M808" s="1"/>
     </row>
-    <row r="809" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="809" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M809" s="1"/>
     </row>
-    <row r="810" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="810" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M810" s="1"/>
     </row>
-    <row r="811" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="811" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M811" s="1"/>
     </row>
-    <row r="812" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="812" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M812" s="1"/>
     </row>
-    <row r="813" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="813" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M813" s="1"/>
     </row>
-    <row r="814" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="814" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M814" s="1"/>
     </row>
-    <row r="815" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="815" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M815" s="1"/>
     </row>
-    <row r="816" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="816" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M816" s="1"/>
     </row>
-    <row r="817" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="817" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M817" s="1"/>
     </row>
-    <row r="818" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="818" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M818" s="1"/>
     </row>
-    <row r="819" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="819" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M819" s="1"/>
     </row>
-    <row r="820" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="820" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M820" s="1"/>
     </row>
-    <row r="821" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="821" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M821" s="1"/>
     </row>
-    <row r="822" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="822" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M822" s="1"/>
     </row>
-    <row r="823" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="823" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M823" s="1"/>
     </row>
-    <row r="824" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="824" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M824" s="1"/>
     </row>
-    <row r="825" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="825" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M825" s="1"/>
     </row>
-    <row r="826" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="826" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M826" s="1"/>
     </row>
-    <row r="827" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="827" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M827" s="1"/>
     </row>
-    <row r="828" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="828" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M828" s="1"/>
     </row>
-    <row r="829" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="829" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M829" s="1"/>
     </row>
-    <row r="830" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="830" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M830" s="1"/>
     </row>
-    <row r="831" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="831" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M831" s="1"/>
     </row>
-    <row r="832" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="832" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M832" s="1"/>
     </row>
-    <row r="833" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="833" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M833" s="1"/>
     </row>
-    <row r="834" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="834" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M834" s="1"/>
     </row>
-    <row r="835" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="835" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M835" s="1"/>
     </row>
-    <row r="836" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="836" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M836" s="1"/>
     </row>
-    <row r="837" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="837" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M837" s="1"/>
     </row>
-    <row r="838" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="838" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M838" s="1"/>
     </row>
-    <row r="839" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="839" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M839" s="1"/>
     </row>
-    <row r="840" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="840" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M840" s="1"/>
     </row>
-    <row r="841" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="841" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M841" s="1"/>
     </row>
-    <row r="842" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="842" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M842" s="1"/>
     </row>
-    <row r="843" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="843" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M843" s="1"/>
     </row>
-    <row r="844" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="844" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M844" s="1"/>
     </row>
-    <row r="845" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="845" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M845" s="1"/>
     </row>
-    <row r="846" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="846" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M846" s="1"/>
     </row>
-    <row r="847" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="847" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M847" s="1"/>
     </row>
-    <row r="848" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="848" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M848" s="1"/>
     </row>
-    <row r="849" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="849" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M849" s="1"/>
     </row>
-    <row r="850" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="850" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M850" s="1"/>
     </row>
-    <row r="851" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="851" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M851" s="1"/>
     </row>
-    <row r="852" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="852" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M852" s="1"/>
     </row>
-    <row r="853" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="853" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M853" s="1"/>
     </row>
-    <row r="854" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="854" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M854" s="1"/>
     </row>
-    <row r="855" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="855" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M855" s="1"/>
     </row>
-    <row r="856" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="856" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M856" s="1"/>
     </row>
-    <row r="857" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="857" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M857" s="1"/>
     </row>
-    <row r="858" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="858" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M858" s="1"/>
     </row>
-    <row r="859" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="859" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M859" s="1"/>
     </row>
-    <row r="860" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="860" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M860" s="1"/>
     </row>
-    <row r="861" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="861" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M861" s="1"/>
     </row>
-    <row r="862" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="862" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M862" s="1"/>
     </row>
-    <row r="863" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="863" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M863" s="1"/>
     </row>
-    <row r="864" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="864" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M864" s="1"/>
     </row>
-    <row r="865" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="865" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M865" s="1"/>
     </row>
-    <row r="866" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="866" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M866" s="1"/>
     </row>
-    <row r="867" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="867" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M867" s="1"/>
     </row>
-    <row r="868" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="868" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M868" s="1"/>
     </row>
-    <row r="869" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="869" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M869" s="1"/>
     </row>
-    <row r="870" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="870" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M870" s="1"/>
     </row>
-    <row r="871" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="871" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M871" s="1"/>
     </row>
-    <row r="872" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="872" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M872" s="1"/>
     </row>
-    <row r="873" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="873" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M873" s="1"/>
     </row>
-    <row r="874" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="874" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M874" s="1"/>
     </row>
-    <row r="875" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="875" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M875" s="1"/>
     </row>
-    <row r="876" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="876" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M876" s="1"/>
     </row>
-    <row r="877" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="877" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M877" s="1"/>
     </row>
-    <row r="878" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="878" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M878" s="1"/>
     </row>
-    <row r="879" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="879" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M879" s="1"/>
     </row>
-    <row r="880" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="880" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M880" s="1"/>
     </row>
-    <row r="881" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="881" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M881" s="1"/>
     </row>
-    <row r="882" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="882" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M882" s="1"/>
     </row>
-    <row r="883" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="883" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M883" s="1"/>
     </row>
-    <row r="884" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="884" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M884" s="1"/>
     </row>
-    <row r="885" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="885" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M885" s="1"/>
     </row>
-    <row r="886" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="886" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M886" s="1"/>
     </row>
-    <row r="887" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="887" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M887" s="1"/>
     </row>
-    <row r="888" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="888" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M888" s="1"/>
     </row>
-    <row r="889" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="889" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M889" s="1"/>
     </row>
-    <row r="890" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="890" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M890" s="1"/>
     </row>
-    <row r="891" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="891" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M891" s="1"/>
     </row>
-    <row r="892" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="892" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M892" s="1"/>
     </row>
-    <row r="893" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="893" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M893" s="1"/>
     </row>
-    <row r="894" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="894" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M894" s="1"/>
     </row>
-    <row r="895" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="895" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M895" s="1"/>
     </row>
-    <row r="896" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="896" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M896" s="1"/>
     </row>
-    <row r="897" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="897" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M897" s="1"/>
     </row>
-    <row r="898" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="898" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M898" s="1"/>
     </row>
-    <row r="899" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="899" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M899" s="1"/>
     </row>
-    <row r="900" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="900" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M900" s="1"/>
     </row>
-    <row r="901" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="901" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M901" s="1"/>
     </row>
-    <row r="902" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="902" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M902" s="1"/>
     </row>
-    <row r="903" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="903" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M903" s="1"/>
     </row>
-    <row r="904" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="904" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M904" s="1"/>
     </row>
-    <row r="905" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="905" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M905" s="1"/>
     </row>
-    <row r="906" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="906" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M906" s="1"/>
     </row>
-    <row r="907" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="907" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M907" s="1"/>
     </row>
-    <row r="908" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="908" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M908" s="1"/>
     </row>
-    <row r="909" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="909" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M909" s="1"/>
     </row>
-    <row r="910" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="910" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M910" s="1"/>
     </row>
-    <row r="911" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="911" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M911" s="1"/>
     </row>
-    <row r="912" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="912" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M912" s="1"/>
     </row>
-    <row r="913" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="913" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M913" s="1"/>
     </row>
-    <row r="914" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="914" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M914" s="1"/>
     </row>
-    <row r="915" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="915" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M915" s="1"/>
     </row>
-    <row r="916" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="916" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M916" s="1"/>
     </row>
-    <row r="917" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="917" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M917" s="1"/>
     </row>
-    <row r="918" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="918" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M918" s="1"/>
     </row>
-    <row r="919" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="919" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M919" s="1"/>
     </row>
-    <row r="920" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="920" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M920" s="1"/>
     </row>
-    <row r="921" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="921" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M921" s="1"/>
     </row>
-    <row r="922" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="922" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M922" s="1"/>
     </row>
-    <row r="923" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="923" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M923" s="1"/>
     </row>
-    <row r="924" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="924" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M924" s="1"/>
     </row>
-    <row r="925" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="925" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M925" s="1"/>
     </row>
-    <row r="926" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="926" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M926" s="1"/>
     </row>
-    <row r="927" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="927" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M927" s="1"/>
     </row>
-    <row r="928" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="928" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M928" s="1"/>
     </row>
-    <row r="929" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="929" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M929" s="1"/>
     </row>
-    <row r="930" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="930" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M930" s="1"/>
     </row>
-    <row r="931" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="931" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M931" s="1"/>
     </row>
-    <row r="932" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="932" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M932" s="1"/>
     </row>
-    <row r="933" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="933" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M933" s="1"/>
     </row>
-    <row r="934" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="934" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M934" s="1"/>
     </row>
-    <row r="935" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="935" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M935" s="1"/>
     </row>
-    <row r="936" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="936" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M936" s="1"/>
     </row>
-    <row r="937" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="937" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M937" s="1"/>
     </row>
-    <row r="938" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="938" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M938" s="1"/>
     </row>
-    <row r="939" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="939" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M939" s="1"/>
     </row>
-    <row r="940" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="940" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M940" s="1"/>
     </row>
-    <row r="941" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="941" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M941" s="1"/>
     </row>
-    <row r="942" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="942" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M942" s="1"/>
     </row>
-    <row r="943" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="943" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M943" s="1"/>
     </row>
-    <row r="944" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="944" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M944" s="1"/>
     </row>
-    <row r="945" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="945" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M945" s="1"/>
     </row>
-    <row r="946" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="946" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M946" s="1"/>
     </row>
-    <row r="947" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="947" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M947" s="1"/>
     </row>
-    <row r="948" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="948" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M948" s="1"/>
     </row>
-    <row r="949" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="949" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M949" s="1"/>
     </row>
-    <row r="950" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="950" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M950" s="1"/>
     </row>
-    <row r="951" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="951" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M951" s="1"/>
     </row>
-    <row r="952" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="952" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M952" s="1"/>
     </row>
-    <row r="953" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="953" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M953" s="1"/>
     </row>
-    <row r="954" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="954" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M954" s="1"/>
     </row>
-    <row r="955" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="955" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M955" s="1"/>
     </row>
-    <row r="956" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="956" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M956" s="1"/>
     </row>
-    <row r="957" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="957" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M957" s="1"/>
     </row>
-    <row r="958" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="958" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M958" s="1"/>
     </row>
-    <row r="959" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="959" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M959" s="1"/>
     </row>
-    <row r="960" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="960" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M960" s="1"/>
     </row>
-    <row r="961" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="961" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M961" s="1"/>
     </row>
-    <row r="962" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="962" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M962" s="1"/>
     </row>
-    <row r="963" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="963" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M963" s="1"/>
     </row>
-    <row r="964" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="964" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M964" s="1"/>
     </row>
-    <row r="965" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="965" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M965" s="1"/>
     </row>
-    <row r="966" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="966" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M966" s="1"/>
     </row>
-    <row r="967" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="967" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M967" s="1"/>
     </row>
-    <row r="968" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="968" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M968" s="1"/>
     </row>
-    <row r="969" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="969" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M969" s="1"/>
     </row>
-    <row r="970" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="970" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M970" s="1"/>
     </row>
-    <row r="971" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="971" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M971" s="1"/>
     </row>
-    <row r="972" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="972" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M972" s="1"/>
     </row>
-    <row r="973" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="973" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M973" s="1"/>
     </row>
-    <row r="974" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="974" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M974" s="1"/>
     </row>
-    <row r="975" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="975" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M975" s="1"/>
     </row>
-    <row r="976" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="976" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M976" s="1"/>
     </row>
-    <row r="977" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="977" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M977" s="1"/>
     </row>
-    <row r="978" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="978" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M978" s="1"/>
     </row>
-    <row r="979" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="979" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M979" s="1"/>
     </row>
-    <row r="980" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="980" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M980" s="1"/>
     </row>
-    <row r="981" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="981" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M981" s="1"/>
     </row>
-    <row r="982" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="982" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M982" s="1"/>
     </row>
-    <row r="983" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="983" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M983" s="1"/>
     </row>
-    <row r="984" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="984" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M984" s="1"/>
     </row>
-    <row r="985" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="985" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M985" s="1"/>
     </row>
-    <row r="986" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="986" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M986" s="1"/>
     </row>
-    <row r="987" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="987" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M987" s="1"/>
     </row>
-    <row r="988" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="988" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M988" s="1"/>
     </row>
-    <row r="989" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="989" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M989" s="1"/>
     </row>
-    <row r="990" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="990" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M990" s="1"/>
     </row>
-    <row r="991" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="991" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M991" s="1"/>
     </row>
-    <row r="992" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="992" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M992" s="1"/>
     </row>
-    <row r="993" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="993" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M993" s="1"/>
     </row>
-    <row r="994" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="994" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M994" s="1"/>
     </row>
-    <row r="995" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="995" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M995" s="1"/>
     </row>
-    <row r="996" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="996" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M996" s="1"/>
     </row>
-    <row r="997" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="997" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M997" s="1"/>
     </row>
-    <row r="998" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="998" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M998" s="1"/>
     </row>
-    <row r="999" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="999" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M999" s="1"/>
     </row>
-    <row r="1000" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1000" s="1"/>
     </row>
-    <row r="1001" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1001" s="1"/>
     </row>
-    <row r="1002" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1002" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1002" s="1"/>
     </row>
-    <row r="1003" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1003" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1003" s="1"/>
     </row>
-    <row r="1004" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1004" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1004" s="1"/>
     </row>
-    <row r="1005" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1005" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1005" s="1"/>
     </row>
-    <row r="1006" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1006" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1006" s="1"/>
     </row>
-    <row r="1007" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1007" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1007" s="1"/>
     </row>
-    <row r="1008" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1008" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1008" s="1"/>
     </row>
-    <row r="1009" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1009" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1009" s="1"/>
     </row>
-    <row r="1010" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1010" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1010" s="1"/>
     </row>
-    <row r="1011" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1011" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1011" s="1"/>
     </row>
-    <row r="1012" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1012" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1012" s="1"/>
     </row>
-    <row r="1013" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1013" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1013" s="1"/>
     </row>
-    <row r="1014" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1014" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1014" s="1"/>
     </row>
-    <row r="1015" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1015" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1015" s="1"/>
     </row>
-    <row r="1016" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1016" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1016" s="1"/>
     </row>
-    <row r="1017" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1017" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1017" s="1"/>
     </row>
-    <row r="1018" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1018" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1018" s="1"/>
     </row>
-    <row r="1019" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1019" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1019" s="1"/>
     </row>
-    <row r="1020" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1020" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1020" s="1"/>
     </row>
-    <row r="1021" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1021" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1021" s="1"/>
     </row>
-    <row r="1022" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1022" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1022" s="1"/>
     </row>
-    <row r="1023" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1023" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1023" s="1"/>
     </row>
-    <row r="1024" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1024" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1024" s="1"/>
     </row>
-    <row r="1025" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1025" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1025" s="1"/>
     </row>
-    <row r="1026" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1026" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1026" s="1"/>
     </row>
-    <row r="1027" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1027" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1027" s="1"/>
     </row>
-    <row r="1028" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1028" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1028" s="1"/>
     </row>
-    <row r="1029" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1029" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1029" s="1"/>
     </row>
-    <row r="1030" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1030" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1030" s="1"/>
     </row>
-    <row r="1031" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1031" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1031" s="1"/>
     </row>
-    <row r="1032" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1032" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1032" s="1"/>
     </row>
-    <row r="1033" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1033" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1033" s="1"/>
     </row>
-    <row r="1034" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1034" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1034" s="1"/>
     </row>
-    <row r="1035" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1035" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1035" s="1"/>
     </row>
-    <row r="1036" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1036" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1036" s="1"/>
     </row>
-    <row r="1037" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1037" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1037" s="1"/>
     </row>
-    <row r="1038" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1038" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1038" s="1"/>
     </row>
-    <row r="1039" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1039" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1039" s="1"/>
     </row>
-    <row r="1040" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1040" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1040" s="1"/>
     </row>
-    <row r="1041" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1041" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1041" s="1"/>
     </row>
-    <row r="1042" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1042" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1042" s="1"/>
     </row>
-    <row r="1043" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1043" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1043" s="1"/>
     </row>
-    <row r="1044" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1044" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1044" s="1"/>
     </row>
-    <row r="1045" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1045" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1045" s="1"/>
     </row>
-    <row r="1046" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1046" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1046" s="1"/>
     </row>
-    <row r="1047" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1047" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1047" s="1"/>
     </row>
-    <row r="1048" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1048" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1048" s="1"/>
     </row>
-    <row r="1049" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1049" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1049" s="1"/>
     </row>
-    <row r="1050" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1050" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1050" s="1"/>
     </row>
-    <row r="1051" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1051" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1051" s="1"/>
     </row>
-    <row r="1052" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1052" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1052" s="1"/>
     </row>
-    <row r="1053" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1053" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1053" s="1"/>
     </row>
-    <row r="1054" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1054" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1054" s="1"/>
     </row>
-    <row r="1055" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1055" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1055" s="1"/>
     </row>
-    <row r="1056" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1056" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1056" s="1"/>
     </row>
-    <row r="1057" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1057" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1057" s="1"/>
     </row>
-    <row r="1058" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1058" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1058" s="1"/>
     </row>
-    <row r="1059" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1059" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1059" s="1"/>
     </row>
-    <row r="1060" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1060" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1060" s="1"/>
     </row>
-    <row r="1061" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1061" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1061" s="1"/>
     </row>
-    <row r="1062" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1062" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1062" s="1"/>
     </row>
-    <row r="1063" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1063" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1063" s="1"/>
     </row>
-    <row r="1064" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1064" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1064" s="1"/>
     </row>
-    <row r="1065" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1065" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1065" s="1"/>
     </row>
-    <row r="1066" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1066" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1066" s="1"/>
     </row>
-    <row r="1067" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1067" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1067" s="1"/>
     </row>
-    <row r="1068" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1068" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1068" s="1"/>
     </row>
-    <row r="1069" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1069" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1069" s="1"/>
     </row>
-    <row r="1070" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1070" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1070" s="1"/>
     </row>
-    <row r="1071" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1071" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1071" s="1"/>
     </row>
-    <row r="1072" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1072" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1072" s="1"/>
     </row>
-    <row r="1073" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1073" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1073" s="1"/>
     </row>
-    <row r="1074" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1074" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1074" s="1"/>
     </row>
-    <row r="1075" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1075" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1075" s="1"/>
     </row>
-    <row r="1076" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1076" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1076" s="1"/>
     </row>
-    <row r="1077" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1077" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1077" s="1"/>
     </row>
-    <row r="1078" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1078" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1078" s="1"/>
     </row>
-    <row r="1079" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1079" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1079" s="1"/>
     </row>
-    <row r="1080" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1080" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1080" s="1"/>
     </row>
-    <row r="1081" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1081" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1081" s="1"/>
     </row>
-    <row r="1082" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1082" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1082" s="1"/>
     </row>
-    <row r="1083" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1083" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1083" s="1"/>
     </row>
-    <row r="1084" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1084" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1084" s="1"/>
     </row>
-    <row r="1085" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1085" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1085" s="1"/>
     </row>
-    <row r="1086" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1086" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1086" s="1"/>
     </row>
-    <row r="1087" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1087" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1087" s="1"/>
     </row>
-    <row r="1088" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1088" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1088" s="1"/>
     </row>
-    <row r="1089" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1089" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1089" s="1"/>
     </row>
-    <row r="1090" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1090" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1090" s="1"/>
     </row>
-    <row r="1091" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1091" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1091" s="1"/>
     </row>
-    <row r="1092" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1092" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1092" s="1"/>
     </row>
-    <row r="1093" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1093" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1093" s="1"/>
     </row>
-    <row r="1094" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1094" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1094" s="1"/>
     </row>
-    <row r="1095" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1095" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1095" s="1"/>
     </row>
-    <row r="1096" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1096" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1096" s="1"/>
     </row>
-    <row r="1097" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1097" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1097" s="1"/>
     </row>
-    <row r="1098" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1098" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1098" s="1"/>
     </row>
-    <row r="1099" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1099" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1099" s="1"/>
     </row>
-    <row r="1100" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1100" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1100" s="1"/>
     </row>
-    <row r="1101" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1101" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1101" s="1"/>
     </row>
-    <row r="1102" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1102" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1102" s="1"/>
     </row>
-    <row r="1103" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1103" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1103" s="1"/>
     </row>
-    <row r="1104" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1104" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1104" s="1"/>
     </row>
-    <row r="1105" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1105" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1105" s="1"/>
     </row>
-    <row r="1106" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1106" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1106" s="1"/>
     </row>
-    <row r="1107" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1107" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1107" s="1"/>
     </row>
-    <row r="1108" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1108" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1108" s="1"/>
     </row>
-    <row r="1109" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1109" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1109" s="1"/>
     </row>
-    <row r="1110" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1110" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1110" s="1"/>
     </row>
-    <row r="1111" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1111" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1111" s="1"/>
     </row>
-    <row r="1112" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1112" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1112" s="1"/>
     </row>
-    <row r="1113" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1113" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1113" s="1"/>
     </row>
-    <row r="1114" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1114" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1114" s="1"/>
     </row>
-    <row r="1115" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1115" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1115" s="1"/>
     </row>
-    <row r="1116" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1116" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1116" s="1"/>
     </row>
-    <row r="1117" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1117" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1117" s="1"/>
     </row>
-    <row r="1118" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1118" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1118" s="1"/>
     </row>
-    <row r="1119" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1119" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1119" s="1"/>
     </row>
-    <row r="1120" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1120" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1120" s="1"/>
     </row>
-    <row r="1121" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1121" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1121" s="1"/>
     </row>
-    <row r="1122" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1122" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1122" s="1"/>
     </row>
-    <row r="1123" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1123" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1123" s="1"/>
     </row>
-    <row r="1124" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1124" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1124" s="1"/>
     </row>
-    <row r="1125" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1125" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1125" s="1"/>
     </row>
-    <row r="1126" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1126" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1126" s="1"/>
     </row>
-    <row r="1127" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1127" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1127" s="1"/>
     </row>
-    <row r="1128" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1128" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1128" s="1"/>
     </row>
-    <row r="1129" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1129" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1129" s="1"/>
     </row>
-    <row r="1130" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1130" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1130" s="1"/>
     </row>
-    <row r="1131" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1131" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1131" s="1"/>
     </row>
-    <row r="1132" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1132" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1132" s="1"/>
     </row>
-    <row r="1133" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1133" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1133" s="1"/>
     </row>
-    <row r="1134" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1134" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1134" s="1"/>
     </row>
-    <row r="1135" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1135" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1135" s="1"/>
     </row>
-    <row r="1136" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1136" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1136" s="1"/>
     </row>
-    <row r="1137" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1137" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1137" s="1"/>
     </row>
-    <row r="1138" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1138" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1138" s="1"/>
     </row>
-    <row r="1139" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1139" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1139" s="1"/>
     </row>
-    <row r="1140" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1140" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1140" s="1"/>
     </row>
-    <row r="1141" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1141" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1141" s="1"/>
     </row>
-    <row r="1142" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1142" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1142" s="1"/>
     </row>
-    <row r="1143" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1143" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1143" s="1"/>
     </row>
-    <row r="1144" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1144" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1144" s="1"/>
     </row>
-    <row r="1145" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1145" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1145" s="1"/>
     </row>
-    <row r="1146" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1146" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1146" s="1"/>
     </row>
-    <row r="1147" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1147" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1147" s="1"/>
     </row>
-    <row r="1148" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1148" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1148" s="1"/>
     </row>
-    <row r="1149" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1149" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1149" s="1"/>
     </row>
-    <row r="1150" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1150" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1150" s="1"/>
     </row>
-    <row r="1151" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1151" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1151" s="1"/>
     </row>
-    <row r="1152" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1152" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1152" s="1"/>
     </row>
-    <row r="1153" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1153" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1153" s="1"/>
     </row>
-    <row r="1154" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1154" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1154" s="1"/>
     </row>
-    <row r="1155" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1155" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1155" s="1"/>
     </row>
-    <row r="1156" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1156" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1156" s="1"/>
     </row>
-    <row r="1157" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1157" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1157" s="1"/>
     </row>
-    <row r="1158" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1158" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1158" s="1"/>
     </row>
-    <row r="1159" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1159" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1159" s="1"/>
     </row>
-    <row r="1160" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1160" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1160" s="1"/>
     </row>
-    <row r="1161" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1161" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1161" s="1"/>
     </row>
-    <row r="1162" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1162" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1162" s="1"/>
     </row>
-    <row r="1163" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1163" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1163" s="1"/>
     </row>
-    <row r="1164" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1164" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1164" s="1"/>
     </row>
-    <row r="1165" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1165" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1165" s="1"/>
     </row>
-    <row r="1166" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1166" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1166" s="1"/>
     </row>
-    <row r="1167" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1167" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1167" s="1"/>
     </row>
-    <row r="1168" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1168" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1168" s="1"/>
     </row>
-    <row r="1169" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1169" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1169" s="1"/>
     </row>
-    <row r="1170" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1170" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1170" s="1"/>
     </row>
-    <row r="1171" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1171" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1171" s="1"/>
     </row>
-    <row r="1172" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1172" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1172" s="1"/>
     </row>
-    <row r="1173" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1173" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1173" s="1"/>
     </row>
-    <row r="1174" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1174" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1174" s="1"/>
     </row>
-    <row r="1175" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1175" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1175" s="1"/>
     </row>
-    <row r="1176" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1176" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1176" s="1"/>
     </row>
-    <row r="1177" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1177" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1177" s="1"/>
     </row>
-    <row r="1178" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1178" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1178" s="1"/>
     </row>
-    <row r="1179" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1179" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1179" s="1"/>
     </row>
-    <row r="1180" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1180" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1180" s="1"/>
     </row>
-    <row r="1181" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1181" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1181" s="1"/>
     </row>
-    <row r="1182" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1182" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1182" s="1"/>
     </row>
-    <row r="1183" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1183" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1183" s="1"/>
     </row>
-    <row r="1184" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1184" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1184" s="1"/>
     </row>
-    <row r="1185" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1185" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1185" s="1"/>
     </row>
-    <row r="1186" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1186" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1186" s="1"/>
     </row>
-    <row r="1187" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1187" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1187" s="1"/>
     </row>
-    <row r="1188" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1188" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1188" s="1"/>
     </row>
-    <row r="1189" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1189" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1189" s="1"/>
     </row>
-    <row r="1190" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1190" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1190" s="1"/>
     </row>
-    <row r="1191" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1191" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1191" s="1"/>
     </row>
-    <row r="1192" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1192" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1192" s="1"/>
     </row>
-    <row r="1193" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1193" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1193" s="1"/>
     </row>
-    <row r="1194" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1194" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1194" s="1"/>
     </row>
-    <row r="1195" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1195" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1195" s="1"/>
     </row>
-    <row r="1196" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1196" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1196" s="1"/>
     </row>
-    <row r="1197" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1197" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1197" s="1"/>
     </row>
-    <row r="1198" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1198" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1198" s="1"/>
     </row>
-    <row r="1199" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1199" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1199" s="1"/>
     </row>
-    <row r="1200" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1200" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1200" s="1"/>
     </row>
-    <row r="1201" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1201" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1201" s="1"/>
     </row>
-    <row r="1202" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1202" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1202" s="1"/>
     </row>
-    <row r="1203" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1203" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1203" s="1"/>
     </row>
-    <row r="1204" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1204" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1204" s="1"/>
     </row>
-    <row r="1205" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1205" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1205" s="1"/>
     </row>
-    <row r="1206" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1206" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1206" s="1"/>
     </row>
-    <row r="1207" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1207" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1207" s="1"/>
     </row>
-    <row r="1208" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1208" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1208" s="1"/>
     </row>
-    <row r="1209" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1209" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1209" s="1"/>
     </row>
-    <row r="1210" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1210" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1210" s="1"/>
     </row>
-    <row r="1211" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1211" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1211" s="1"/>
     </row>
-    <row r="1212" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1212" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1212" s="1"/>
     </row>
-    <row r="1213" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1213" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1213" s="1"/>
     </row>
-    <row r="1214" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1214" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1214" s="1"/>
     </row>
-    <row r="1215" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1215" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1215" s="1"/>
     </row>
-    <row r="1216" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1216" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1216" s="1"/>
     </row>
-    <row r="1217" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1217" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1217" s="1"/>
     </row>
-    <row r="1218" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1218" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1218" s="1"/>
     </row>
-    <row r="1219" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1219" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1219" s="1"/>
     </row>
-    <row r="1220" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1220" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1220" s="1"/>
     </row>
-    <row r="1221" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1221" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1221" s="1"/>
     </row>
-    <row r="1222" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1222" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1222" s="1"/>
     </row>
-    <row r="1223" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1223" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1223" s="1"/>
     </row>
-    <row r="1224" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1224" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1224" s="1"/>
     </row>
-    <row r="1225" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1225" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1225" s="1"/>
     </row>
-    <row r="1226" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1226" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1226" s="1"/>
     </row>
-    <row r="1227" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1227" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1227" s="1"/>
     </row>
-    <row r="1228" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1228" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1228" s="1"/>
     </row>
-    <row r="1229" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1229" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1229" s="1"/>
     </row>
-    <row r="1230" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1230" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1230" s="1"/>
     </row>
-    <row r="1231" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1231" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1231" s="1"/>
     </row>
-    <row r="1232" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1232" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1232" s="1"/>
     </row>
-    <row r="1233" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1233" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1233" s="1"/>
     </row>
-    <row r="1234" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1234" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1234" s="1"/>
     </row>
-    <row r="1235" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1235" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1235" s="1"/>
     </row>
-    <row r="1236" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1236" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1236" s="1"/>
     </row>
-    <row r="1237" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1237" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1237" s="1"/>
     </row>
-    <row r="1238" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1238" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1238" s="1"/>
     </row>
-    <row r="1239" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1239" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1239" s="1"/>
     </row>
-    <row r="1240" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1240" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1240" s="1"/>
     </row>
-    <row r="1241" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1241" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1241" s="1"/>
     </row>
-    <row r="1242" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1242" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1242" s="1"/>
     </row>
-    <row r="1243" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1243" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1243" s="1"/>
     </row>
-    <row r="1244" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1244" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1244" s="1"/>
     </row>
-    <row r="1245" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1245" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1245" s="1"/>
     </row>
-    <row r="1246" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1246" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1246" s="1"/>
     </row>
-    <row r="1247" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1247" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1247" s="1"/>
     </row>
-    <row r="1248" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1248" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1248" s="1"/>
     </row>
-    <row r="1249" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1249" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1249" s="1"/>
     </row>
-    <row r="1250" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1250" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1250" s="1"/>
     </row>
-    <row r="1251" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1251" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1251" s="1"/>
     </row>
-    <row r="1252" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1252" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1252" s="1"/>
     </row>
-    <row r="1253" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1253" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1253" s="1"/>
     </row>
-    <row r="1254" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1254" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1254" s="1"/>
     </row>
-    <row r="1255" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1255" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1255" s="1"/>
     </row>
-    <row r="1256" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1256" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1256" s="1"/>
     </row>
-    <row r="1257" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1257" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1257" s="1"/>
     </row>
-    <row r="1258" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1258" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1258" s="1"/>
     </row>
-    <row r="1259" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1259" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1259" s="1"/>
     </row>
-    <row r="1260" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1260" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1260" s="1"/>
     </row>
-    <row r="1261" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1261" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1261" s="1"/>
     </row>
-    <row r="1262" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1262" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1262" s="1"/>
     </row>
-    <row r="1263" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1263" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1263" s="1"/>
     </row>
-    <row r="1264" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1264" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1264" s="1"/>
     </row>
-    <row r="1265" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1265" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1265" s="1"/>
     </row>
-    <row r="1266" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1266" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1266" s="1"/>
     </row>
-    <row r="1267" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1267" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1267" s="1"/>
     </row>
-    <row r="1268" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1268" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1268" s="1"/>
     </row>
-    <row r="1269" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1269" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1269" s="1"/>
     </row>
-    <row r="1270" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1270" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1270" s="1"/>
     </row>
-    <row r="1271" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1271" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1271" s="1"/>
     </row>
-    <row r="1272" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1272" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1272" s="1"/>
     </row>
-    <row r="1273" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1273" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1273" s="1"/>
     </row>
-    <row r="1274" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1274" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1274" s="1"/>
     </row>
-    <row r="1275" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1275" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1275" s="1"/>
     </row>
-    <row r="1276" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1276" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1276" s="1"/>
     </row>
-    <row r="1277" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1277" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1277" s="1"/>
     </row>
-    <row r="1278" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1278" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1278" s="1"/>
     </row>
-    <row r="1279" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1279" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1279" s="1"/>
     </row>
-    <row r="1280" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1280" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1280" s="1"/>
     </row>
-    <row r="1281" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1281" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1281" s="1"/>
     </row>
-    <row r="1282" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1282" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1282" s="1"/>
     </row>
-    <row r="1283" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1283" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1283" s="1"/>
     </row>
-    <row r="1284" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1284" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1284" s="1"/>
     </row>
-    <row r="1285" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1285" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1285" s="1"/>
     </row>
-    <row r="1286" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1286" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1286" s="1"/>
     </row>
-    <row r="1287" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1287" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1287" s="1"/>
     </row>
-    <row r="1288" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1288" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1288" s="1"/>
     </row>
-    <row r="1289" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1289" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1289" s="1"/>
     </row>
-    <row r="1290" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1290" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1290" s="1"/>
     </row>
-    <row r="1291" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1291" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1291" s="1"/>
     </row>
-    <row r="1292" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1292" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1292" s="1"/>
     </row>
-    <row r="1293" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1293" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1293" s="1"/>
     </row>
-    <row r="1294" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1294" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1294" s="1"/>
     </row>
-    <row r="1295" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1295" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1295" s="1"/>
     </row>
-    <row r="1296" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1296" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1296" s="1"/>
     </row>
-    <row r="1297" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1297" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1297" s="1"/>
     </row>
-    <row r="1298" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1298" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1298" s="1"/>
     </row>
-    <row r="1299" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1299" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1299" s="1"/>
     </row>
-    <row r="1300" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1300" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1300" s="1"/>
     </row>
-    <row r="1301" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1301" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1301" s="1"/>
     </row>
-    <row r="1302" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1302" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1302" s="1"/>
     </row>
-    <row r="1303" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1303" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1303" s="1"/>
     </row>
-    <row r="1304" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1304" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1304" s="1"/>
     </row>
-    <row r="1305" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1305" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1305" s="1"/>
     </row>
-    <row r="1306" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1306" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1306" s="1"/>
     </row>
-    <row r="1307" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1307" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1307" s="1"/>
     </row>
-    <row r="1308" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1308" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1308" s="1"/>
     </row>
-    <row r="1309" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1309" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1309" s="1"/>
     </row>
-    <row r="1310" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1310" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1310" s="1"/>
     </row>
-    <row r="1311" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1311" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1311" s="1"/>
     </row>
-    <row r="1312" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1312" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1312" s="1"/>
     </row>
-    <row r="1313" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1313" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1313" s="1"/>
     </row>
-    <row r="1314" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1314" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1314" s="1"/>
     </row>
-    <row r="1315" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1315" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1315" s="1"/>
     </row>
-    <row r="1316" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1316" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1316" s="1"/>
     </row>
-    <row r="1317" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1317" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1317" s="1"/>
     </row>
-    <row r="1318" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1318" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1318" s="1"/>
     </row>
-    <row r="1319" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1319" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1319" s="1"/>
     </row>
-    <row r="1320" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1320" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1320" s="1"/>
     </row>
-    <row r="1321" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1321" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1321" s="1"/>
     </row>
-    <row r="1322" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1322" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1322" s="1"/>
     </row>
-    <row r="1323" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1323" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1323" s="1"/>
     </row>
-    <row r="1324" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1324" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1324" s="1"/>
     </row>
-    <row r="1325" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1325" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1325" s="1"/>
     </row>
-    <row r="1326" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1326" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1326" s="1"/>
     </row>
-    <row r="1327" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1327" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1327" s="1"/>
     </row>
-    <row r="1328" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1328" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1328" s="1"/>
     </row>
-    <row r="1329" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1329" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1329" s="1"/>
     </row>
-    <row r="1330" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1330" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1330" s="1"/>
     </row>
-    <row r="1331" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1331" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1331" s="1"/>
     </row>
-    <row r="1332" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1332" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1332" s="1"/>
     </row>
-    <row r="1333" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1333" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1333" s="1"/>
     </row>
-    <row r="1334" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1334" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1334" s="1"/>
     </row>
-    <row r="1335" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1335" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1335" s="1"/>
     </row>
-    <row r="1336" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1336" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1336" s="1"/>
     </row>
-    <row r="1337" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1337" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1337" s="1"/>
     </row>
-    <row r="1338" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1338" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1338" s="1"/>
     </row>
-    <row r="1339" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1339" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1339" s="1"/>
     </row>
-    <row r="1340" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1340" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1340" s="1"/>
     </row>
-    <row r="1341" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1341" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1341" s="1"/>
     </row>
-    <row r="1342" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1342" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1342" s="1"/>
     </row>
-    <row r="1343" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1343" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1343" s="1"/>
     </row>
-    <row r="1344" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1344" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1344" s="1"/>
     </row>
-    <row r="1345" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1345" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1345" s="1"/>
     </row>
-    <row r="1346" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1346" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1346" s="1"/>
     </row>
-    <row r="1347" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1347" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1347" s="1"/>
     </row>
-    <row r="1348" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1348" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1348" s="1"/>
     </row>
-    <row r="1349" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1349" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1349" s="1"/>
     </row>
-    <row r="1350" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1350" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1350" s="1"/>
     </row>
-    <row r="1351" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1351" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1351" s="1"/>
     </row>
-    <row r="1352" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1352" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1352" s="1"/>
     </row>
-    <row r="1353" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1353" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1353" s="1"/>
     </row>
-    <row r="1354" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1354" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1354" s="1"/>
     </row>
-    <row r="1355" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1355" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1355" s="1"/>
     </row>
-    <row r="1356" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1356" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1356" s="1"/>
     </row>
-    <row r="1357" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1357" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1357" s="1"/>
     </row>
-    <row r="1358" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1358" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1358" s="1"/>
     </row>
-    <row r="1359" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1359" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1359" s="1"/>
     </row>
-    <row r="1360" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1360" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1360" s="1"/>
     </row>
-    <row r="1361" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1361" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1361" s="1"/>
     </row>
-    <row r="1362" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1362" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1362" s="1"/>
     </row>
-    <row r="1363" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1363" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1363" s="1"/>
     </row>
-    <row r="1364" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1364" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1364" s="1"/>
     </row>
-    <row r="1365" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1365" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1365" s="1"/>
     </row>
-    <row r="1366" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1366" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1366" s="1"/>
     </row>
-    <row r="1367" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1367" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1367" s="1"/>
     </row>
-    <row r="1368" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1368" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1368" s="1"/>
     </row>
-    <row r="1369" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1369" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1369" s="1"/>
     </row>
-    <row r="1370" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1370" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1370" s="1"/>
     </row>
-    <row r="1371" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1371" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1371" s="1"/>
     </row>
-    <row r="1372" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1372" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1372" s="1"/>
     </row>
-    <row r="1373" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1373" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1373" s="1"/>
     </row>
-    <row r="1374" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1374" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1374" s="1"/>
     </row>
-    <row r="1375" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1375" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1375" s="1"/>
     </row>
-    <row r="1376" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1376" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1376" s="1"/>
     </row>
-    <row r="1377" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1377" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1377" s="1"/>
     </row>
-    <row r="1378" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1378" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1378" s="1"/>
     </row>
-    <row r="1379" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1379" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1379" s="1"/>
     </row>
-    <row r="1380" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1380" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1380" s="1"/>
     </row>
-    <row r="1381" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1381" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1381" s="1"/>
     </row>
-    <row r="1382" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1382" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1382" s="1"/>
     </row>
-    <row r="1383" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1383" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1383" s="1"/>
     </row>
-    <row r="1384" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1384" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1384" s="1"/>
     </row>
-    <row r="1385" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1385" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1385" s="1"/>
     </row>
-    <row r="1386" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1386" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1386" s="1"/>
     </row>
-    <row r="1387" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1387" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1387" s="1"/>
     </row>
-    <row r="1388" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1388" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1388" s="1"/>
     </row>
-    <row r="1389" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1389" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1389" s="1"/>
     </row>
-    <row r="1390" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1390" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1390" s="1"/>
     </row>
-    <row r="1391" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1391" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1391" s="1"/>
     </row>
-    <row r="1392" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1392" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1392" s="1"/>
     </row>
-    <row r="1393" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1393" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1393" s="1"/>
     </row>
-    <row r="1394" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1394" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1394" s="1"/>
     </row>
-    <row r="1395" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1395" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1395" s="1"/>
     </row>
-    <row r="1396" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1396" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1396" s="1"/>
     </row>
-    <row r="1397" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1397" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1397" s="1"/>
     </row>
-    <row r="1398" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1398" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1398" s="1"/>
     </row>
-    <row r="1399" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1399" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1399" s="1"/>
     </row>
-    <row r="1400" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1400" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1400" s="1"/>
     </row>
-    <row r="1401" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1401" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1401" s="1"/>
     </row>
-    <row r="1402" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1402" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1402" s="1"/>
     </row>
-    <row r="1403" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1403" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1403" s="1"/>
     </row>
-    <row r="1404" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1404" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1404" s="1"/>
     </row>
-    <row r="1405" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1405" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1405" s="1"/>
     </row>
-    <row r="1406" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1406" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1406" s="1"/>
     </row>
-    <row r="1407" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1407" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1407" s="1"/>
     </row>
-    <row r="1408" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1408" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1408" s="1"/>
     </row>
-    <row r="1409" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1409" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1409" s="1"/>
     </row>
-    <row r="1410" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1410" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1410" s="1"/>
     </row>
-    <row r="1411" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1411" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1411" s="1"/>
     </row>
-    <row r="1412" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1412" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1412" s="1"/>
     </row>
-    <row r="1413" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1413" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1413" s="1"/>
     </row>
-    <row r="1414" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1414" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1414" s="1"/>
     </row>
-    <row r="1415" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1415" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1415" s="1"/>
     </row>
-    <row r="1416" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1416" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1416" s="1"/>
     </row>
-    <row r="1417" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1417" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1417" s="1"/>
     </row>
-    <row r="1418" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1418" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1418" s="1"/>
     </row>
-    <row r="1419" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1419" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1419" s="1"/>
     </row>
-    <row r="1420" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1420" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1420" s="1"/>
     </row>
-    <row r="1421" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1421" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1421" s="1"/>
     </row>
-    <row r="1422" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1422" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1422" s="1"/>
     </row>
-    <row r="1423" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1423" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1423" s="1"/>
     </row>
-    <row r="1424" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1424" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1424" s="1"/>
     </row>
-    <row r="1425" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1425" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1425" s="1"/>
     </row>
-    <row r="1426" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1426" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1426" s="1"/>
     </row>
-    <row r="1427" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1427" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1427" s="1"/>
     </row>
-    <row r="1428" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1428" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1428" s="1"/>
     </row>
-    <row r="1429" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1429" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1429" s="1"/>
     </row>
-    <row r="1430" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1430" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1430" s="1"/>
     </row>
-    <row r="1431" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1431" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1431" s="1"/>
     </row>
-    <row r="1432" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1432" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1432" s="1"/>
     </row>
-    <row r="1433" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1433" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1433" s="1"/>
     </row>
-    <row r="1434" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1434" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1434" s="1"/>
     </row>
-    <row r="1435" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1435" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1435" s="1"/>
     </row>
-    <row r="1436" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1436" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1436" s="1"/>
     </row>
-    <row r="1437" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1437" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1437" s="1"/>
     </row>
-    <row r="1438" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1438" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1438" s="1"/>
     </row>
-    <row r="1439" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1439" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1439" s="1"/>
     </row>
-    <row r="1440" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1440" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1440" s="1"/>
     </row>
-    <row r="1441" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1441" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1441" s="1"/>
     </row>
-    <row r="1442" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1442" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1442" s="1"/>
     </row>
-    <row r="1443" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1443" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1443" s="1"/>
     </row>
-    <row r="1444" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1444" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1444" s="1"/>
     </row>
-    <row r="1445" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1445" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1445" s="1"/>
     </row>
-    <row r="1446" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1446" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1446" s="1"/>
     </row>
-    <row r="1447" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1447" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1447" s="1"/>
     </row>
-    <row r="1448" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1448" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1448" s="1"/>
     </row>
-    <row r="1449" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1449" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1449" s="1"/>
     </row>
-    <row r="1450" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1450" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1450" s="1"/>
     </row>
-    <row r="1451" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1451" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1451" s="1"/>
     </row>
-    <row r="1452" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1452" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1452" s="1"/>
     </row>
-    <row r="1453" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1453" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1453" s="1"/>
     </row>
-    <row r="1454" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1454" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1454" s="1"/>
     </row>
-    <row r="1455" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1455" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1455" s="1"/>
     </row>
-    <row r="1456" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1456" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1456" s="1"/>
     </row>
-    <row r="1457" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1457" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1457" s="1"/>
     </row>
-    <row r="1458" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1458" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1458" s="1"/>
     </row>
-    <row r="1459" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1459" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1459" s="1"/>
     </row>
-    <row r="1460" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1460" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1460" s="1"/>
     </row>
-    <row r="1461" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1461" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1461" s="1"/>
     </row>
-    <row r="1462" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1462" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1462" s="1"/>
     </row>
-    <row r="1463" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1463" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1463" s="1"/>
     </row>
-    <row r="1464" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1464" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1464" s="1"/>
     </row>
-    <row r="1465" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1465" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1465" s="1"/>
     </row>
-    <row r="1466" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1466" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1466" s="1"/>
     </row>
-    <row r="1467" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1467" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1467" s="1"/>
     </row>
-    <row r="1468" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1468" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1468" s="1"/>
     </row>
-    <row r="1469" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1469" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1469" s="1"/>
     </row>
-    <row r="1470" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1470" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1470" s="1"/>
     </row>
-    <row r="1471" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1471" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1471" s="1"/>
     </row>
-    <row r="1472" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1472" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1472" s="1"/>
     </row>
-    <row r="1473" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1473" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1473" s="1"/>
     </row>
-    <row r="1474" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1474" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1474" s="1"/>
     </row>
-    <row r="1475" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1475" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1475" s="1"/>
     </row>
-    <row r="1476" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1476" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1476" s="1"/>
     </row>
-    <row r="1477" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1477" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1477" s="1"/>
     </row>
-    <row r="1478" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1478" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1478" s="1"/>
     </row>
-    <row r="1479" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1479" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1479" s="1"/>
     </row>
-    <row r="1480" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1480" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1480" s="1"/>
     </row>
-    <row r="1481" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1481" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1481" s="1"/>
     </row>
-    <row r="1482" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1482" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1482" s="1"/>
     </row>
-    <row r="1483" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1483" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1483" s="1"/>
     </row>
-    <row r="1484" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1484" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1484" s="1"/>
     </row>
-    <row r="1485" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1485" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1485" s="1"/>
     </row>
-    <row r="1486" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1486" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1486" s="1"/>
     </row>
-    <row r="1487" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1487" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1487" s="1"/>
     </row>
-    <row r="1488" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1488" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1488" s="1"/>
     </row>
-    <row r="1489" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1489" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1489" s="1"/>
     </row>
-    <row r="1490" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1490" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1490" s="1"/>
     </row>
-    <row r="1491" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1491" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1491" s="1"/>
     </row>
-    <row r="1492" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1492" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1492" s="1"/>
     </row>
-    <row r="1493" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1493" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1493" s="1"/>
     </row>
-    <row r="1494" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1494" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1494" s="1"/>
     </row>
-    <row r="1495" spans="13:13" x14ac:dyDescent="0.35">
+    <row r="1495" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M1495" s="1"/>
     </row>
   </sheetData>
@@ -6296,15 +6296,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C86AEE2-EB22-4A7C-832E-476A4BC6A09F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E1" sqref="E1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="21.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="29.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6317,8 +6317,11 @@
       <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -6331,8 +6334,11 @@
       <c r="D2" s="8">
         <v>43831</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -6345,8 +6351,11 @@
       <c r="D3" s="5">
         <v>43831</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -6359,8 +6368,11 @@
       <c r="D4" s="5">
         <v>43831</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -6373,8 +6385,11 @@
       <c r="D5" s="5">
         <v>43831</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -6387,8 +6402,11 @@
       <c r="D6" s="5">
         <v>44197</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="15">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6401,8 +6419,11 @@
       <c r="D7" s="5">
         <v>44197</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -6415,8 +6436,11 @@
       <c r="D8" s="5">
         <v>43831</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" s="15">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6429,8 +6453,11 @@
       <c r="D9" s="5">
         <v>44197</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" s="15">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -6442,6 +6469,9 @@
       </c>
       <c r="D10" s="5">
         <v>43831</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
   </sheetData>
